--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_2_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>781940.6209700526</v>
+        <v>680273.4186153723</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372414.8796289763</v>
+        <v>372414.8796289765</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16054271.8378575</v>
+        <v>16054271.83785749</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6656337.174747347</v>
+        <v>6656337.174747346</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.6465718516622</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>206.1329861685091</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>138.0543947935843</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>206.9021266852166</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>239.2550021054925</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>274.3489689505702</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.744564135339203</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.937266833929343</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>210.6015067450344</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>129.4024732919099</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>129.4024732919099</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.6465718516623</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0781689449873</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>265.9173718572451</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="W14" t="n">
-        <v>274.3489689505702</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.744564135339203</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>104.6672283897153</v>
       </c>
       <c r="S15" t="n">
-        <v>81.64302615474055</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T15" t="n">
         <v>213.0199265699567</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1962251491922</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>135.963600488736</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,46 +1785,46 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>129.4024732919099</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.6465718516623</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.6465718516622</v>
+        <v>274.3489689505703</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.744564135339203</v>
+        <v>6.744564135339189</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>104.6672283897153</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>182.6000704870501</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U18" t="n">
-        <v>104.504672078926</v>
+        <v>137.5272038475694</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>129.40247329191</v>
       </c>
       <c r="U19" t="n">
-        <v>129.4024732919099</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.3489689505703</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>138.0543947935843</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>103.592177058078</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>274.3489689505703</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>274.3489689505703</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.6465718516621</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>109.8982095021239</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.744564135339203</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>223.4582000355541</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>139.2291408283034</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>337.7721596422273</v>
@@ -2329,13 +2329,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>103.477998321142</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>328.0456286874195</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S23" t="n">
-        <v>185.2945747290548</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0023113846365</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>122.6976610225137</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>48.01245583437485</v>
       </c>
       <c r="G24" t="n">
-        <v>147.7532282274605</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>116.1609171460363</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>73.23050007970866</v>
@@ -2450,7 +2450,7 @@
         <v>173.1764123430336</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>210.9749816267804</v>
       </c>
       <c r="U24" t="n">
         <v>237.1628473753645</v>
@@ -2462,10 +2462,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>23.81024626591301</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6112222480308</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>160.9846976992646</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>13.94328123741318</v>
       </c>
       <c r="D26" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>416.9852966124832</v>
       </c>
       <c r="H26" t="n">
-        <v>328.0456286874195</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>169.5767537257256</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>78.49080135129142</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.2945747290548</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.9861941084435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>35.02885986265221</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -2684,10 +2684,10 @@
         <v>73.16751063606756</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>173.1764123430336</v>
       </c>
       <c r="T27" t="n">
-        <v>14.34918786862988</v>
+        <v>210.9749816267804</v>
       </c>
       <c r="U27" t="n">
         <v>237.1628473753645</v>
@@ -2699,7 +2699,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>158.4348382074968</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.8584254797875</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>61.47825398307332</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62063415604023</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>32.20376812089736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>159.28521285796</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>17.67119517517383</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>169.5767537257256</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S29" t="n">
-        <v>175.0724549160001</v>
+        <v>185.2945747290548</v>
       </c>
       <c r="T29" t="n">
         <v>214.3549151769703</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>166.0704087434776</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.7532282274605</v>
+        <v>5.01904932440599</v>
       </c>
       <c r="H30" t="n">
         <v>116.1609171460363</v>
@@ -2924,7 +2924,7 @@
         <v>173.1764123430336</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>210.9749816267804</v>
       </c>
       <c r="U30" t="n">
         <v>237.1628473753645</v>
@@ -2939,7 +2939,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>151.3026562600109</v>
+        <v>23.81024626591301</v>
       </c>
       <c r="H31" t="n">
-        <v>158.4348382074968</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>139.8584254797875</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>416.9852966124832</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>328.0456286874195</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S32" t="n">
-        <v>90.42080343117314</v>
+        <v>185.2945747290548</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.3549151769703</v>
       </c>
       <c r="U32" t="n">
         <v>250.0023113846365</v>
@@ -3091,10 +3091,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>333.9907473322641</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,22 +3113,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>5.082038768048048</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>116.1609171460363</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>71.30062579782185</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>73.16751063606756</v>
       </c>
       <c r="S33" t="n">
-        <v>173.1764123430336</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>210.9749816267804</v>
@@ -3170,7 +3170,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -3186,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>126.7963490316165</v>
       </c>
       <c r="G34" t="n">
-        <v>89.82440227693768</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>158.4348382074968</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.8584254797875</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>61.47825398307332</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>117.6647300369957</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>416.9852966124832</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>328.0456286874195</v>
+        <v>302.6374650884189</v>
       </c>
       <c r="I35" t="n">
-        <v>169.5767537257256</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3401,16 +3401,16 @@
         <v>210.9749816267804</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1628473753645</v>
+        <v>38.79133629234965</v>
       </c>
       <c r="V36" t="n">
-        <v>18.94140335645651</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.62063415604023</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>166.0590398614607</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>220.9536011553171</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.962644774477075</v>
+        <v>23.81024626591302</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>245.4200784175847</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>236.2287435350508</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.3549151769703</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0023113846365</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.7532282274605</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>116.1609171460363</v>
       </c>
       <c r="I39" t="n">
-        <v>73.23050007970866</v>
+        <v>10.0049613259132</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>73.16751063606756</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>173.1764123430336</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>210.9749816267804</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1628473753645</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3647,7 +3647,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>132.9021402092203</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2.535715544651321</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>159.28521285796</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>416.9852966124832</v>
+        <v>403.3530491641727</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>169.5767537257256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S41" t="n">
         <v>185.2945747290548</v>
@@ -3796,19 +3796,19 @@
         <v>214.3549151769703</v>
       </c>
       <c r="U41" t="n">
-        <v>61.86777310011478</v>
+        <v>250.0023113846365</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -3830,16 +3830,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>74.81171840881308</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>73.23050007970866</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>73.16751063606756</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>173.1764123430336</v>
       </c>
       <c r="T42" t="n">
-        <v>1.218050624485736</v>
+        <v>210.9749816267804</v>
       </c>
       <c r="U42" t="n">
         <v>237.1628473753645</v>
@@ -3881,7 +3881,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6112222480308</v>
+        <v>168.9928965166237</v>
       </c>
       <c r="V43" t="n">
-        <v>160.9846976992645</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>280.370040240029</v>
+        <v>328.0456286874195</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>185.2945747290548</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>69.85203464333769</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
         <v>382.2855674184499</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>6.758486692276399</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>82.65676539047223</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>147.7532282274605</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>116.1609171460363</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>73.16751063606756</v>
       </c>
       <c r="S45" t="n">
-        <v>173.1764123430336</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>210.9749816267804</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.1628473753645</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>8.431980116879952</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2118567568763</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>220.9536011553171</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.2103386750983</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>230.1630550599942</v>
+        <v>820.2757051451392</v>
       </c>
       <c r="C11" t="n">
-        <v>230.1630550599942</v>
+        <v>820.2757051451392</v>
       </c>
       <c r="D11" t="n">
-        <v>230.1630550599942</v>
+        <v>543.1555344879976</v>
       </c>
       <c r="E11" t="n">
-        <v>230.1630550599942</v>
+        <v>266.0353638308559</v>
       </c>
       <c r="F11" t="n">
-        <v>230.1630550599942</v>
+        <v>266.0353638308559</v>
       </c>
       <c r="G11" t="n">
-        <v>230.1630550599942</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="H11" t="n">
-        <v>230.1630550599942</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="I11" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="J11" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604566</v>
       </c>
       <c r="K11" t="n">
-        <v>129.2129831052409</v>
+        <v>129.2129831052412</v>
       </c>
       <c r="L11" t="n">
-        <v>317.2678444246599</v>
+        <v>317.2678444246602</v>
       </c>
       <c r="M11" t="n">
-        <v>555.3910716196102</v>
+        <v>555.3910716196103</v>
       </c>
       <c r="N11" t="n">
-        <v>790.5249455637495</v>
+        <v>790.5249455637497</v>
       </c>
       <c r="O11" t="n">
-        <v>975.645836369733</v>
+        <v>975.6458363697333</v>
       </c>
       <c r="P11" t="n">
         <v>1089.494661134058</v>
@@ -5065,28 +5065,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R11" t="n">
-        <v>957.9469921723975</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="S11" t="n">
-        <v>748.954945015613</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T11" t="n">
-        <v>748.954945015613</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="U11" t="n">
-        <v>748.954945015613</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="V11" t="n">
-        <v>748.954945015613</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="W11" t="n">
-        <v>507.2832257171358</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="X11" t="n">
-        <v>230.1630550599942</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="Y11" t="n">
-        <v>230.1630550599942</v>
+        <v>820.2757051451392</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>706.1312281833916</v>
+        <v>218.1728828288791</v>
       </c>
       <c r="C12" t="n">
-        <v>516.7189539163553</v>
+        <v>28.76060856184279</v>
       </c>
       <c r="D12" t="n">
-        <v>355.938837677387</v>
+        <v>28.76060856184279</v>
       </c>
       <c r="E12" t="n">
-        <v>182.3756337988015</v>
+        <v>28.76060856184279</v>
       </c>
       <c r="F12" t="n">
-        <v>21.94791751604561</v>
+        <v>28.76060856184279</v>
       </c>
       <c r="G12" t="n">
-        <v>21.94791751604561</v>
+        <v>28.76060856184279</v>
       </c>
       <c r="H12" t="n">
-        <v>21.94791751604561</v>
+        <v>28.76060856184279</v>
       </c>
       <c r="I12" t="n">
-        <v>21.94791751604561</v>
+        <v>28.76060856184279</v>
       </c>
       <c r="J12" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="K12" t="n">
-        <v>137.2905245750913</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="L12" t="n">
-        <v>358.6694362623893</v>
+        <v>243.3268292033436</v>
       </c>
       <c r="M12" t="n">
-        <v>630.2749155234537</v>
+        <v>514.9323084644082</v>
       </c>
       <c r="N12" t="n">
-        <v>851.6825544370804</v>
+        <v>786.5377877254728</v>
       </c>
       <c r="O12" t="n">
-        <v>1097.395875802281</v>
+        <v>1032.251109090673</v>
       </c>
       <c r="P12" t="n">
         <v>1097.395875802281</v>
@@ -5144,28 +5144,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R12" t="n">
-        <v>1097.395875802281</v>
+        <v>1087.358232535686</v>
       </c>
       <c r="S12" t="n">
-        <v>1097.395875802281</v>
+        <v>902.9137168922007</v>
       </c>
       <c r="T12" t="n">
-        <v>1097.395875802281</v>
+        <v>902.9137168922007</v>
       </c>
       <c r="U12" t="n">
-        <v>1097.395875802281</v>
+        <v>663.321570276855</v>
       </c>
       <c r="V12" t="n">
-        <v>1097.395875802281</v>
+        <v>663.321570276855</v>
       </c>
       <c r="W12" t="n">
-        <v>1097.395875802281</v>
+        <v>663.321570276855</v>
       </c>
       <c r="X12" t="n">
-        <v>1097.395875802281</v>
+        <v>443.8135758935514</v>
       </c>
       <c r="Y12" t="n">
-        <v>884.6670811103268</v>
+        <v>218.1728828288791</v>
       </c>
     </row>
     <row r="13">
@@ -5187,28 +5187,28 @@
         <v>152.6574864977728</v>
       </c>
       <c r="F13" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="G13" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="H13" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="I13" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="J13" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="K13" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="L13" t="n">
-        <v>49.84539165561337</v>
+        <v>49.84539165561338</v>
       </c>
       <c r="M13" t="n">
-        <v>87.85525627063558</v>
+        <v>87.85525627063561</v>
       </c>
       <c r="N13" t="n">
         <v>132.9774675209003</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.94791751604562</v>
+        <v>543.1555344879978</v>
       </c>
       <c r="C14" t="n">
-        <v>21.94791751604562</v>
+        <v>543.1555344879978</v>
       </c>
       <c r="D14" t="n">
-        <v>21.94791751604562</v>
+        <v>266.0353638308561</v>
       </c>
       <c r="E14" t="n">
-        <v>21.94791751604562</v>
+        <v>266.0353638308561</v>
       </c>
       <c r="F14" t="n">
-        <v>21.94791751604562</v>
+        <v>266.0353638308561</v>
       </c>
       <c r="G14" t="n">
         <v>21.94791751604562</v>
@@ -5278,22 +5278,22 @@
         <v>21.94791751604562</v>
       </c>
       <c r="J14" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604589</v>
       </c>
       <c r="K14" t="n">
-        <v>129.2129831052408</v>
+        <v>129.2129831052412</v>
       </c>
       <c r="L14" t="n">
-        <v>317.2678444246599</v>
+        <v>317.2678444246602</v>
       </c>
       <c r="M14" t="n">
-        <v>555.3910716196099</v>
+        <v>555.3910716196104</v>
       </c>
       <c r="N14" t="n">
-        <v>790.5249455637493</v>
+        <v>790.5249455637497</v>
       </c>
       <c r="O14" t="n">
-        <v>975.6458363697327</v>
+        <v>975.6458363697333</v>
       </c>
       <c r="P14" t="n">
         <v>1089.494661134058</v>
@@ -5311,19 +5311,19 @@
         <v>1097.395875802281</v>
       </c>
       <c r="U14" t="n">
-        <v>844.7916647467382</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="V14" t="n">
-        <v>576.188258830329</v>
+        <v>820.2757051451395</v>
       </c>
       <c r="W14" t="n">
-        <v>299.0680881731873</v>
+        <v>543.1555344879978</v>
       </c>
       <c r="X14" t="n">
-        <v>299.0680881731873</v>
+        <v>543.1555344879978</v>
       </c>
       <c r="Y14" t="n">
-        <v>299.0680881731873</v>
+        <v>543.1555344879978</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>211.3601917830819</v>
+        <v>454.7182738472728</v>
       </c>
       <c r="C15" t="n">
-        <v>21.94791751604562</v>
+        <v>454.7182738472728</v>
       </c>
       <c r="D15" t="n">
-        <v>21.94791751604562</v>
+        <v>293.9381576083046</v>
       </c>
       <c r="E15" t="n">
-        <v>21.94791751604562</v>
+        <v>120.374953729719</v>
       </c>
       <c r="F15" t="n">
-        <v>21.94791751604562</v>
+        <v>120.374953729719</v>
       </c>
       <c r="G15" t="n">
-        <v>21.94791751604562</v>
+        <v>120.374953729719</v>
       </c>
       <c r="H15" t="n">
-        <v>21.94791751604562</v>
+        <v>120.374953729719</v>
       </c>
       <c r="I15" t="n">
-        <v>21.94791751604562</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="J15" t="n">
         <v>21.94791751604562</v>
       </c>
       <c r="K15" t="n">
-        <v>137.2905245750913</v>
+        <v>137.2905245750914</v>
       </c>
       <c r="L15" t="n">
-        <v>358.6694362623893</v>
+        <v>358.6694362623894</v>
       </c>
       <c r="M15" t="n">
-        <v>600.1569908312897</v>
+        <v>404.9469740574896</v>
       </c>
       <c r="N15" t="n">
-        <v>622.1845535404491</v>
+        <v>676.5524533185542</v>
       </c>
       <c r="O15" t="n">
-        <v>867.8978749056494</v>
+        <v>922.2657746837544</v>
       </c>
       <c r="P15" t="n">
-        <v>1043.027976024176</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="Q15" t="n">
         <v>1097.395875802281</v>
       </c>
       <c r="R15" t="n">
-        <v>991.6714026813563</v>
+        <v>991.6714026813565</v>
       </c>
       <c r="S15" t="n">
-        <v>909.2036994947497</v>
+        <v>807.2268870378715</v>
       </c>
       <c r="T15" t="n">
-        <v>694.0320564947934</v>
+        <v>592.0552440379153</v>
       </c>
       <c r="U15" t="n">
-        <v>454.4399098794478</v>
+        <v>592.0552440379153</v>
       </c>
       <c r="V15" t="n">
-        <v>211.3601917830819</v>
+        <v>592.0552440379153</v>
       </c>
       <c r="W15" t="n">
-        <v>211.3601917830819</v>
+        <v>454.7182738472728</v>
       </c>
       <c r="X15" t="n">
-        <v>211.3601917830819</v>
+        <v>454.7182738472728</v>
       </c>
       <c r="Y15" t="n">
-        <v>211.3601917830819</v>
+        <v>454.7182738472728</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="C16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="D16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="E16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="F16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="G16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="H16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="I16" t="n">
         <v>21.94791751604562</v>
@@ -5442,10 +5442,10 @@
         <v>21.94791751604562</v>
       </c>
       <c r="L16" t="n">
-        <v>49.84539165561337</v>
+        <v>49.8453916556134</v>
       </c>
       <c r="M16" t="n">
-        <v>87.85525627063558</v>
+        <v>87.85525627063561</v>
       </c>
       <c r="N16" t="n">
         <v>132.9774675209003</v>
@@ -5472,16 +5472,16 @@
         <v>152.6574864977728</v>
       </c>
       <c r="V16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="W16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="X16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="Y16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>576.188258830329</v>
+      </c>
+      <c r="C17" t="n">
+        <v>576.188258830329</v>
+      </c>
+      <c r="D17" t="n">
+        <v>576.188258830329</v>
+      </c>
+      <c r="E17" t="n">
         <v>299.0680881731873</v>
       </c>
-      <c r="C17" t="n">
-        <v>21.94791751604562</v>
-      </c>
-      <c r="D17" t="n">
-        <v>21.94791751604562</v>
-      </c>
-      <c r="E17" t="n">
-        <v>21.94791751604562</v>
-      </c>
       <c r="F17" t="n">
-        <v>21.94791751604562</v>
+        <v>299.0680881731873</v>
       </c>
       <c r="G17" t="n">
         <v>21.94791751604562</v>
@@ -5515,16 +5515,16 @@
         <v>21.94791751604562</v>
       </c>
       <c r="J17" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604555</v>
       </c>
       <c r="K17" t="n">
         <v>129.2129831052409</v>
       </c>
       <c r="L17" t="n">
-        <v>317.2678444246599</v>
+        <v>317.26784442466</v>
       </c>
       <c r="M17" t="n">
-        <v>555.3910716196102</v>
+        <v>555.3910716196101</v>
       </c>
       <c r="N17" t="n">
         <v>790.5249455637496</v>
@@ -5551,16 +5551,16 @@
         <v>1097.395875802281</v>
       </c>
       <c r="V17" t="n">
-        <v>820.2757051451392</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="W17" t="n">
-        <v>543.1555344879976</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="X17" t="n">
-        <v>543.1555344879976</v>
+        <v>853.3084294874707</v>
       </c>
       <c r="Y17" t="n">
-        <v>299.0680881731873</v>
+        <v>576.188258830329</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>189.1883248445987</v>
+        <v>28.76060856184279</v>
       </c>
       <c r="C18" t="n">
-        <v>189.1883248445987</v>
+        <v>28.76060856184279</v>
       </c>
       <c r="D18" t="n">
-        <v>189.1883248445987</v>
+        <v>28.76060856184279</v>
       </c>
       <c r="E18" t="n">
-        <v>189.1883248445987</v>
+        <v>28.76060856184279</v>
       </c>
       <c r="F18" t="n">
         <v>28.76060856184279</v>
@@ -5597,19 +5597,19 @@
         <v>21.94791751604562</v>
       </c>
       <c r="K18" t="n">
-        <v>137.2905245750914</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="L18" t="n">
-        <v>358.6694362623894</v>
+        <v>243.3268292033437</v>
       </c>
       <c r="M18" t="n">
-        <v>630.274915523454</v>
+        <v>514.9323084644083</v>
       </c>
       <c r="N18" t="n">
-        <v>851.6825544370806</v>
+        <v>786.5377877254729</v>
       </c>
       <c r="O18" t="n">
-        <v>1097.395875802281</v>
+        <v>1032.251109090673</v>
       </c>
       <c r="P18" t="n">
         <v>1097.395875802281</v>
@@ -5618,28 +5618,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R18" t="n">
-        <v>991.6714026813563</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="S18" t="n">
-        <v>807.2268870378713</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T18" t="n">
-        <v>807.2268870378713</v>
+        <v>882.2242328023249</v>
       </c>
       <c r="U18" t="n">
-        <v>701.6666122106733</v>
+        <v>743.3078652795275</v>
       </c>
       <c r="V18" t="n">
-        <v>458.5868941143074</v>
+        <v>743.3078652795275</v>
       </c>
       <c r="W18" t="n">
-        <v>189.1883248445987</v>
+        <v>473.9092960098188</v>
       </c>
       <c r="X18" t="n">
-        <v>189.1883248445987</v>
+        <v>254.4013016265151</v>
       </c>
       <c r="Y18" t="n">
-        <v>189.1883248445987</v>
+        <v>28.76060856184279</v>
       </c>
     </row>
     <row r="19">
@@ -5679,31 +5679,31 @@
         <v>21.94791751604562</v>
       </c>
       <c r="L19" t="n">
-        <v>49.84539165561338</v>
+        <v>49.84539165561341</v>
       </c>
       <c r="M19" t="n">
-        <v>87.85525627063561</v>
+        <v>87.85525627063564</v>
       </c>
       <c r="N19" t="n">
         <v>132.9774675209003</v>
       </c>
       <c r="O19" t="n">
-        <v>152.6574864977728</v>
+        <v>152.6574864977729</v>
       </c>
       <c r="P19" t="n">
-        <v>152.6574864977728</v>
+        <v>152.6574864977729</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.6574864977728</v>
+        <v>152.6574864977729</v>
       </c>
       <c r="R19" t="n">
-        <v>152.6574864977728</v>
+        <v>152.6574864977729</v>
       </c>
       <c r="S19" t="n">
-        <v>152.6574864977728</v>
+        <v>152.6574864977729</v>
       </c>
       <c r="T19" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="U19" t="n">
         <v>21.94791751604562</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>299.0680881731873</v>
+        <v>853.3084294874707</v>
       </c>
       <c r="C20" t="n">
-        <v>299.0680881731873</v>
+        <v>853.3084294874707</v>
       </c>
       <c r="D20" t="n">
-        <v>299.0680881731873</v>
+        <v>576.188258830329</v>
       </c>
       <c r="E20" t="n">
-        <v>299.0680881731873</v>
+        <v>576.188258830329</v>
       </c>
       <c r="F20" t="n">
         <v>299.0680881731873</v>
@@ -5752,22 +5752,22 @@
         <v>21.94791751604562</v>
       </c>
       <c r="J20" t="n">
-        <v>21.94791751604589</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="K20" t="n">
-        <v>129.2129831052413</v>
+        <v>129.2129831052409</v>
       </c>
       <c r="L20" t="n">
-        <v>317.2678444246603</v>
+        <v>317.2678444246599</v>
       </c>
       <c r="M20" t="n">
-        <v>555.3910716196104</v>
+        <v>555.3910716196099</v>
       </c>
       <c r="N20" t="n">
-        <v>790.5249455637498</v>
+        <v>790.5249455637493</v>
       </c>
       <c r="O20" t="n">
-        <v>975.6458363697334</v>
+        <v>975.6458363697332</v>
       </c>
       <c r="P20" t="n">
         <v>1089.494661134058</v>
@@ -5776,28 +5776,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R20" t="n">
-        <v>957.9469921723979</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="S20" t="n">
-        <v>957.9469921723979</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T20" t="n">
-        <v>957.9469921723979</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="U20" t="n">
+        <v>1097.395875802281</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1097.395875802281</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1097.395875802281</v>
+      </c>
+      <c r="X20" t="n">
         <v>853.3084294874707</v>
       </c>
-      <c r="V20" t="n">
-        <v>576.188258830329</v>
-      </c>
-      <c r="W20" t="n">
-        <v>299.0680881731873</v>
-      </c>
-      <c r="X20" t="n">
-        <v>299.0680881731873</v>
-      </c>
       <c r="Y20" t="n">
-        <v>299.0680881731873</v>
+        <v>853.3084294874707</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>139.7689009882305</v>
+        <v>211.3601917830819</v>
       </c>
       <c r="C21" t="n">
-        <v>28.7606085618428</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="D21" t="n">
-        <v>28.7606085618428</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="E21" t="n">
-        <v>28.7606085618428</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="F21" t="n">
-        <v>28.7606085618428</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="G21" t="n">
-        <v>28.7606085618428</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="H21" t="n">
-        <v>28.7606085618428</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="I21" t="n">
-        <v>28.7606085618428</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="J21" t="n">
         <v>21.94791751604562</v>
@@ -5840,16 +5840,16 @@
         <v>243.3268292033436</v>
       </c>
       <c r="M21" t="n">
-        <v>514.9323084644083</v>
+        <v>514.9323084644082</v>
       </c>
       <c r="N21" t="n">
-        <v>622.1845535404493</v>
+        <v>786.5377877254728</v>
       </c>
       <c r="O21" t="n">
-        <v>867.8978749056496</v>
+        <v>1032.251109090673</v>
       </c>
       <c r="P21" t="n">
-        <v>1043.027976024176</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="Q21" t="n">
         <v>1097.395875802281</v>
@@ -5861,22 +5861,22 @@
         <v>1097.395875802281</v>
       </c>
       <c r="T21" t="n">
-        <v>1097.395875802281</v>
+        <v>882.2242328023247</v>
       </c>
       <c r="U21" t="n">
-        <v>1097.395875802281</v>
+        <v>656.5088792310579</v>
       </c>
       <c r="V21" t="n">
-        <v>854.3161577059152</v>
+        <v>656.5088792310579</v>
       </c>
       <c r="W21" t="n">
-        <v>584.9175884362065</v>
+        <v>656.5088792310579</v>
       </c>
       <c r="X21" t="n">
-        <v>365.4095940529029</v>
+        <v>437.0008848477543</v>
       </c>
       <c r="Y21" t="n">
-        <v>139.7689009882305</v>
+        <v>211.3601917830819</v>
       </c>
     </row>
     <row r="22">
@@ -5916,10 +5916,10 @@
         <v>21.94791751604562</v>
       </c>
       <c r="L22" t="n">
-        <v>49.8453916556134</v>
+        <v>49.84539165561337</v>
       </c>
       <c r="M22" t="n">
-        <v>87.85525627063561</v>
+        <v>87.85525627063558</v>
       </c>
       <c r="N22" t="n">
         <v>132.9774675209003</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>900.9188718400216</v>
+        <v>1196.165827577656</v>
       </c>
       <c r="C23" t="n">
-        <v>760.2833760538565</v>
+        <v>1196.165827577656</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0993764152431</v>
+        <v>854.9818279390427</v>
       </c>
       <c r="E23" t="n">
-        <v>43.86815211056012</v>
+        <v>479.7506036343597</v>
       </c>
       <c r="F23" t="n">
-        <v>43.86815211056012</v>
+        <v>375.2273730069435</v>
       </c>
       <c r="G23" t="n">
-        <v>43.86815211056012</v>
+        <v>375.2273730069435</v>
       </c>
       <c r="H23" t="n">
         <v>43.86815211056012</v>
@@ -5995,7 +5995,7 @@
         <v>350.2182794214483</v>
       </c>
       <c r="L23" t="n">
-        <v>686.4129286846426</v>
+        <v>686.4129286846429</v>
       </c>
       <c r="M23" t="n">
         <v>1089.370213448355</v>
@@ -6013,28 +6013,28 @@
         <v>2193.407605528006</v>
       </c>
       <c r="R23" t="n">
-        <v>2193.407605528006</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="S23" t="n">
-        <v>2006.241368427951</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="T23" t="n">
-        <v>2006.241368427951</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="U23" t="n">
-        <v>2006.241368427951</v>
+        <v>1861.59638054222</v>
       </c>
       <c r="V23" t="n">
-        <v>2006.241368427951</v>
+        <v>1537.475386997623</v>
       </c>
       <c r="W23" t="n">
-        <v>1664.931809007984</v>
+        <v>1196.165827577656</v>
       </c>
       <c r="X23" t="n">
-        <v>1664.931809007984</v>
+        <v>1196.165827577656</v>
       </c>
       <c r="Y23" t="n">
-        <v>1278.78477121157</v>
+        <v>1196.165827577656</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1068.601609700336</v>
+        <v>355.7480586140444</v>
       </c>
       <c r="C24" t="n">
-        <v>879.1893354332997</v>
+        <v>166.3357843470081</v>
       </c>
       <c r="D24" t="n">
-        <v>718.4092191943314</v>
+        <v>166.3357843470081</v>
       </c>
       <c r="E24" t="n">
-        <v>544.8460153157458</v>
+        <v>166.3357843470081</v>
       </c>
       <c r="F24" t="n">
-        <v>384.4182990329899</v>
+        <v>117.8383542112759</v>
       </c>
       <c r="G24" t="n">
-        <v>235.172613954747</v>
+        <v>117.8383542112759</v>
       </c>
       <c r="H24" t="n">
         <v>117.8383542112759</v>
@@ -6071,22 +6071,22 @@
         <v>43.86815211056012</v>
       </c>
       <c r="K24" t="n">
-        <v>217.7093282005848</v>
+        <v>240.3161461045231</v>
       </c>
       <c r="L24" t="n">
-        <v>548.1444416482946</v>
+        <v>570.7512595522329</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5012976418166</v>
+        <v>1001.108115545755</v>
       </c>
       <c r="N24" t="n">
-        <v>1438.668308613575</v>
+        <v>1461.275126517514</v>
       </c>
       <c r="O24" t="n">
-        <v>1803.884140369586</v>
+        <v>1826.490958273524</v>
       </c>
       <c r="P24" t="n">
-        <v>2074.925541604158</v>
+        <v>2097.532359508096</v>
       </c>
       <c r="Q24" t="n">
         <v>2193.407605528006</v>
@@ -6098,22 +6098,22 @@
         <v>1944.57536009457</v>
       </c>
       <c r="T24" t="n">
-        <v>1944.57536009457</v>
+        <v>1731.469318047318</v>
       </c>
       <c r="U24" t="n">
-        <v>1705.016928402283</v>
+        <v>1491.91088635503</v>
       </c>
       <c r="V24" t="n">
-        <v>1461.937210305917</v>
+        <v>1248.831168258664</v>
       </c>
       <c r="W24" t="n">
-        <v>1192.538641036208</v>
+        <v>979.4325989889554</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.538641036208</v>
+        <v>759.9246046056518</v>
       </c>
       <c r="Y24" t="n">
-        <v>1192.538641036208</v>
+        <v>534.2839115409795</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.86815211056012</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="C25" t="n">
-        <v>43.86815211056012</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="D25" t="n">
-        <v>43.86815211056012</v>
+        <v>351.3563033192315</v>
       </c>
       <c r="E25" t="n">
-        <v>43.86815211056012</v>
+        <v>208.2490899735497</v>
       </c>
       <c r="F25" t="n">
-        <v>43.86815211056012</v>
+        <v>67.91890591451266</v>
       </c>
       <c r="G25" t="n">
         <v>43.86815211056012</v>
@@ -6180,19 +6180,19 @@
         <v>498.0054449866161</v>
       </c>
       <c r="U25" t="n">
-        <v>206.478957867393</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="V25" t="n">
-        <v>206.478957867393</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="W25" t="n">
-        <v>206.478957867393</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="X25" t="n">
-        <v>43.86815211056012</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.86815211056012</v>
+        <v>498.0054449866161</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1241.443949521218</v>
+        <v>1602.836737154776</v>
       </c>
       <c r="C26" t="n">
-        <v>887.7010228735626</v>
+        <v>1588.752614692742</v>
       </c>
       <c r="D26" t="n">
-        <v>546.5170232349492</v>
+        <v>1247.568615054129</v>
       </c>
       <c r="E26" t="n">
-        <v>546.5170232349492</v>
+        <v>872.3373907494457</v>
       </c>
       <c r="F26" t="n">
-        <v>546.5170232349492</v>
+        <v>465.0654214160987</v>
       </c>
       <c r="G26" t="n">
-        <v>546.5170232349492</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H26" t="n">
-        <v>215.1578023385658</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I26" t="n">
         <v>43.86815211056012</v>
       </c>
       <c r="J26" t="n">
-        <v>123.5423078192117</v>
+        <v>123.5423078192116</v>
       </c>
       <c r="K26" t="n">
-        <v>350.2182794214485</v>
+        <v>350.2182794214483</v>
       </c>
       <c r="L26" t="n">
-        <v>686.412928684643</v>
+        <v>686.4129286846426</v>
       </c>
       <c r="M26" t="n">
         <v>1089.370213448355</v>
@@ -6253,25 +6253,25 @@
         <v>2114.123967799429</v>
       </c>
       <c r="S26" t="n">
-        <v>2114.123967799429</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="T26" t="n">
-        <v>2114.123967799429</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="U26" t="n">
-        <v>2114.123967799429</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="V26" t="n">
-        <v>1790.002974254831</v>
+        <v>1602.836737154776</v>
       </c>
       <c r="W26" t="n">
-        <v>1790.002974254831</v>
+        <v>1602.836737154776</v>
       </c>
       <c r="X26" t="n">
-        <v>1790.002974254831</v>
+        <v>1602.836737154776</v>
       </c>
       <c r="Y26" t="n">
-        <v>1619.309848892767</v>
+        <v>1602.836737154776</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>907.8214934613677</v>
+        <v>753.7919059242831</v>
       </c>
       <c r="C27" t="n">
-        <v>718.4092191943314</v>
+        <v>753.7919059242831</v>
       </c>
       <c r="D27" t="n">
         <v>718.4092191943314</v>
@@ -6305,25 +6305,25 @@
         <v>43.86815211056012</v>
       </c>
       <c r="J27" t="n">
-        <v>84.64441493403783</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K27" t="n">
-        <v>281.0924089280009</v>
+        <v>240.3161461045231</v>
       </c>
       <c r="L27" t="n">
-        <v>611.5275223757105</v>
+        <v>570.7512595522329</v>
       </c>
       <c r="M27" t="n">
-        <v>1041.884378369233</v>
+        <v>1001.108115545755</v>
       </c>
       <c r="N27" t="n">
-        <v>1502.051389340991</v>
+        <v>1461.275126517514</v>
       </c>
       <c r="O27" t="n">
-        <v>1867.267221097002</v>
+        <v>1826.490958273524</v>
       </c>
       <c r="P27" t="n">
-        <v>2138.308622331574</v>
+        <v>2097.532359508096</v>
       </c>
       <c r="Q27" t="n">
         <v>2193.407605528006</v>
@@ -6332,25 +6332,25 @@
         <v>2119.501029127938</v>
       </c>
       <c r="S27" t="n">
-        <v>2119.501029127938</v>
+        <v>1944.57536009457</v>
       </c>
       <c r="T27" t="n">
-        <v>2105.006899967706</v>
+        <v>1731.469318047318</v>
       </c>
       <c r="U27" t="n">
-        <v>1865.448468275418</v>
+        <v>1491.91088635503</v>
       </c>
       <c r="V27" t="n">
-        <v>1622.368750179052</v>
+        <v>1248.831168258664</v>
       </c>
       <c r="W27" t="n">
-        <v>1352.970180909344</v>
+        <v>979.4325989889554</v>
       </c>
       <c r="X27" t="n">
-        <v>1133.46218652604</v>
+        <v>979.4325989889554</v>
       </c>
       <c r="Y27" t="n">
-        <v>907.8214934613677</v>
+        <v>753.7919059242831</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2102.675886056352</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="C28" t="n">
-        <v>2102.675886056352</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="D28" t="n">
-        <v>2102.675886056352</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="E28" t="n">
-        <v>2102.675886056352</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="F28" t="n">
-        <v>2102.675886056352</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="G28" t="n">
-        <v>2102.675886056352</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H28" t="n">
-        <v>1942.640695947769</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I28" t="n">
-        <v>1801.369559099499</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J28" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K28" t="n">
-        <v>1768.507957505851</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L28" t="n">
-        <v>1859.00932265842</v>
+        <v>163.6071621170297</v>
       </c>
       <c r="M28" t="n">
-        <v>1963.026212633426</v>
+        <v>267.624052092036</v>
       </c>
       <c r="N28" t="n">
-        <v>2072.58594971357</v>
+        <v>377.1837891721802</v>
       </c>
       <c r="O28" t="n">
-        <v>2151.784453310117</v>
+        <v>456.3822927687264</v>
       </c>
       <c r="P28" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Q28" t="n">
-        <v>2135.204944764329</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="R28" t="n">
-        <v>2102.675886056352</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="S28" t="n">
-        <v>2102.675886056352</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="T28" t="n">
-        <v>2102.675886056352</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="U28" t="n">
-        <v>2102.675886056352</v>
+        <v>337.1112905846362</v>
       </c>
       <c r="V28" t="n">
-        <v>2102.675886056352</v>
+        <v>337.1112905846362</v>
       </c>
       <c r="W28" t="n">
-        <v>2102.675886056352</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="X28" t="n">
-        <v>2102.675886056352</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="Y28" t="n">
-        <v>2102.675886056352</v>
+        <v>43.86815211056012</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>385.0521517491736</v>
+        <v>1692.587922262865</v>
       </c>
       <c r="C29" t="n">
-        <v>385.0521517491736</v>
+        <v>1338.844995615209</v>
       </c>
       <c r="D29" t="n">
-        <v>43.86815211056014</v>
+        <v>997.6609959765958</v>
       </c>
       <c r="E29" t="n">
-        <v>43.86815211056014</v>
+        <v>622.4297716719128</v>
       </c>
       <c r="F29" t="n">
-        <v>43.86815211056014</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="G29" t="n">
-        <v>43.86815211056014</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="H29" t="n">
-        <v>43.86815211056014</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="I29" t="n">
-        <v>43.86815211056014</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J29" t="n">
-        <v>123.5423078192121</v>
+        <v>123.5423078192115</v>
       </c>
       <c r="K29" t="n">
-        <v>350.2182794214485</v>
+        <v>350.2182794214483</v>
       </c>
       <c r="L29" t="n">
-        <v>686.412928684643</v>
+        <v>686.4129286846428</v>
       </c>
       <c r="M29" t="n">
-        <v>1089.370213448356</v>
+        <v>1089.370213448355</v>
       </c>
       <c r="N29" t="n">
-        <v>1492.005332341422</v>
+        <v>1492.005332341421</v>
       </c>
       <c r="O29" t="n">
-        <v>1835.292898976576</v>
+        <v>1835.292898976574</v>
       </c>
       <c r="P29" t="n">
-        <v>2084.133322245723</v>
+        <v>2084.133322245722</v>
       </c>
       <c r="Q29" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="R29" t="n">
-        <v>2193.407605528007</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="S29" t="n">
-        <v>2016.566741976492</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="T29" t="n">
-        <v>1800.046625636118</v>
+        <v>1710.437614359</v>
       </c>
       <c r="U29" t="n">
-        <v>1800.046625636118</v>
+        <v>1710.437614359</v>
       </c>
       <c r="V29" t="n">
-        <v>1475.92563209152</v>
+        <v>1710.437614359</v>
       </c>
       <c r="W29" t="n">
-        <v>1134.616072671553</v>
+        <v>1710.437614359</v>
       </c>
       <c r="X29" t="n">
-        <v>771.1991895455876</v>
+        <v>1710.437614359</v>
       </c>
       <c r="Y29" t="n">
-        <v>385.0521517491736</v>
+        <v>1710.437614359</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1046.937223052974</v>
+        <v>429.6546350141126</v>
       </c>
       <c r="C30" t="n">
-        <v>879.1893354332998</v>
+        <v>240.2423607470763</v>
       </c>
       <c r="D30" t="n">
-        <v>718.4092191943315</v>
+        <v>240.2423607470763</v>
       </c>
       <c r="E30" t="n">
-        <v>544.8460153157459</v>
+        <v>240.2423607470763</v>
       </c>
       <c r="F30" t="n">
-        <v>384.41829903299</v>
+        <v>240.2423607470763</v>
       </c>
       <c r="G30" t="n">
         <v>235.172613954747</v>
       </c>
       <c r="H30" t="n">
-        <v>117.838354211276</v>
+        <v>117.8383542112759</v>
       </c>
       <c r="I30" t="n">
-        <v>43.86815211056014</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J30" t="n">
-        <v>84.64441493403784</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K30" t="n">
-        <v>281.0924089280009</v>
+        <v>240.3161461045231</v>
       </c>
       <c r="L30" t="n">
-        <v>611.5275223757105</v>
+        <v>570.7512595522329</v>
       </c>
       <c r="M30" t="n">
-        <v>1041.884378369233</v>
+        <v>1001.108115545755</v>
       </c>
       <c r="N30" t="n">
-        <v>1502.051389340991</v>
+        <v>1461.275126517514</v>
       </c>
       <c r="O30" t="n">
-        <v>1867.267221097002</v>
+        <v>1826.490958273524</v>
       </c>
       <c r="P30" t="n">
-        <v>2138.308622331574</v>
+        <v>2097.532359508096</v>
       </c>
       <c r="Q30" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="R30" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="S30" t="n">
-        <v>2018.48193649464</v>
+        <v>2018.481936494639</v>
       </c>
       <c r="T30" t="n">
-        <v>2018.48193649464</v>
+        <v>1805.375894447386</v>
       </c>
       <c r="U30" t="n">
-        <v>1778.923504802352</v>
+        <v>1565.817462755098</v>
       </c>
       <c r="V30" t="n">
-        <v>1535.843786705987</v>
+        <v>1322.737744658732</v>
       </c>
       <c r="W30" t="n">
-        <v>1266.445217436278</v>
+        <v>1053.339175389024</v>
       </c>
       <c r="X30" t="n">
-        <v>1046.937223052974</v>
+        <v>833.8311810057201</v>
       </c>
       <c r="Y30" t="n">
-        <v>1046.937223052974</v>
+        <v>608.1904879410476</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="C31" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="D31" t="n">
-        <v>2193.407605528007</v>
+        <v>351.3563033192315</v>
       </c>
       <c r="E31" t="n">
-        <v>2193.407605528007</v>
+        <v>208.2490899735497</v>
       </c>
       <c r="F31" t="n">
-        <v>2193.407605528007</v>
+        <v>67.91890591451266</v>
       </c>
       <c r="G31" t="n">
-        <v>2040.576639608804</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H31" t="n">
-        <v>1880.541449500221</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I31" t="n">
-        <v>1739.270312651951</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J31" t="n">
-        <v>1739.270312651951</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K31" t="n">
-        <v>1768.507957505852</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L31" t="n">
-        <v>1859.009322658421</v>
+        <v>163.6071621170297</v>
       </c>
       <c r="M31" t="n">
-        <v>1963.026212633427</v>
+        <v>267.624052092036</v>
       </c>
       <c r="N31" t="n">
-        <v>2072.585949713571</v>
+        <v>377.1837891721802</v>
       </c>
       <c r="O31" t="n">
-        <v>2151.784453310117</v>
+        <v>456.3822927687264</v>
       </c>
       <c r="P31" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Q31" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="R31" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="S31" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="T31" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="U31" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="V31" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="W31" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="X31" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Y31" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>806.2494210547122</v>
+        <v>796.4246423124821</v>
       </c>
       <c r="C32" t="n">
-        <v>806.2494210547122</v>
+        <v>796.4246423124821</v>
       </c>
       <c r="D32" t="n">
-        <v>465.0654214160987</v>
+        <v>796.4246423124821</v>
       </c>
       <c r="E32" t="n">
-        <v>465.0654214160987</v>
+        <v>796.4246423124821</v>
       </c>
       <c r="F32" t="n">
-        <v>465.0654214160987</v>
+        <v>796.4246423124821</v>
       </c>
       <c r="G32" t="n">
-        <v>43.86815211056014</v>
+        <v>375.2273730069435</v>
       </c>
       <c r="H32" t="n">
-        <v>43.86815211056014</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I32" t="n">
-        <v>43.86815211056014</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J32" t="n">
-        <v>123.5423078192121</v>
+        <v>123.5423078192117</v>
       </c>
       <c r="K32" t="n">
-        <v>350.2182794214489</v>
+        <v>350.2182794214485</v>
       </c>
       <c r="L32" t="n">
-        <v>686.4129286846436</v>
+        <v>686.412928684643</v>
       </c>
       <c r="M32" t="n">
-        <v>1089.370213448356</v>
+        <v>1089.370213448355</v>
       </c>
       <c r="N32" t="n">
-        <v>1492.005332341422</v>
+        <v>1492.005332341421</v>
       </c>
       <c r="O32" t="n">
-        <v>1835.292898976576</v>
+        <v>1835.292898976575</v>
       </c>
       <c r="P32" t="n">
-        <v>2084.133322245723</v>
+        <v>2084.133322245722</v>
       </c>
       <c r="Q32" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="R32" t="n">
-        <v>2193.407605528007</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="S32" t="n">
-        <v>2102.073460648034</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="T32" t="n">
-        <v>2102.073460648034</v>
+        <v>1710.437614359</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.545873390825</v>
+        <v>1457.910027101791</v>
       </c>
       <c r="V32" t="n">
-        <v>1525.424879846227</v>
+        <v>1133.789033557193</v>
       </c>
       <c r="W32" t="n">
-        <v>1184.115320426261</v>
+        <v>1133.789033557193</v>
       </c>
       <c r="X32" t="n">
-        <v>1184.115320426261</v>
+        <v>796.4246423124821</v>
       </c>
       <c r="Y32" t="n">
-        <v>1184.115320426261</v>
+        <v>796.4246423124821</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>355.7480586140453</v>
+        <v>800.0722969171202</v>
       </c>
       <c r="C33" t="n">
-        <v>166.335784347009</v>
+        <v>610.6600226500839</v>
       </c>
       <c r="D33" t="n">
-        <v>161.2024118540312</v>
+        <v>449.8799064111156</v>
       </c>
       <c r="E33" t="n">
-        <v>161.2024118540312</v>
+        <v>276.31670253253</v>
       </c>
       <c r="F33" t="n">
-        <v>161.2024118540312</v>
+        <v>115.8889862497741</v>
       </c>
       <c r="G33" t="n">
-        <v>161.2024118540312</v>
+        <v>115.8889862497741</v>
       </c>
       <c r="H33" t="n">
-        <v>43.86815211056014</v>
+        <v>115.8889862497741</v>
       </c>
       <c r="I33" t="n">
-        <v>43.86815211056014</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J33" t="n">
-        <v>43.86815211056014</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K33" t="n">
-        <v>240.3161461045232</v>
+        <v>240.3161461045231</v>
       </c>
       <c r="L33" t="n">
         <v>570.7512595522329</v>
@@ -6800,31 +6800,31 @@
         <v>2097.532359508096</v>
       </c>
       <c r="Q33" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="R33" t="n">
-        <v>2119.501029127939</v>
+        <v>2119.501029127938</v>
       </c>
       <c r="S33" t="n">
-        <v>1944.575360094571</v>
+        <v>2119.501029127938</v>
       </c>
       <c r="T33" t="n">
-        <v>1731.469318047318</v>
+        <v>1906.394987080685</v>
       </c>
       <c r="U33" t="n">
-        <v>1491.910886355031</v>
+        <v>1666.836555388397</v>
       </c>
       <c r="V33" t="n">
-        <v>1248.831168258665</v>
+        <v>1423.756837292031</v>
       </c>
       <c r="W33" t="n">
-        <v>979.4325989889563</v>
+        <v>1423.756837292031</v>
       </c>
       <c r="X33" t="n">
-        <v>759.9246046056527</v>
+        <v>1204.248842908728</v>
       </c>
       <c r="Y33" t="n">
-        <v>534.2839115409804</v>
+        <v>978.6081498440553</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.0054449866161</v>
+        <v>318.5944140119008</v>
       </c>
       <c r="C34" t="n">
-        <v>498.0054449866161</v>
+        <v>318.5944140119008</v>
       </c>
       <c r="D34" t="n">
-        <v>498.0054449866161</v>
+        <v>171.9452723445162</v>
       </c>
       <c r="E34" t="n">
-        <v>498.0054449866161</v>
+        <v>171.9452723445162</v>
       </c>
       <c r="F34" t="n">
-        <v>498.0054449866161</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="G34" t="n">
-        <v>407.2737255149618</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H34" t="n">
-        <v>247.2385354063792</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I34" t="n">
-        <v>105.967398558109</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J34" t="n">
-        <v>43.86815211056014</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K34" t="n">
-        <v>73.10579696446072</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L34" t="n">
         <v>163.6071621170297</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1815.541706156458</v>
+        <v>1065.977785234078</v>
       </c>
       <c r="C35" t="n">
-        <v>1461.798779508803</v>
+        <v>1065.977785234078</v>
       </c>
       <c r="D35" t="n">
-        <v>1461.798779508803</v>
+        <v>724.7937855954642</v>
       </c>
       <c r="E35" t="n">
-        <v>1086.56755520412</v>
+        <v>349.5625612907812</v>
       </c>
       <c r="F35" t="n">
-        <v>967.7142925404878</v>
+        <v>349.5625612907812</v>
       </c>
       <c r="G35" t="n">
-        <v>546.5170232349492</v>
+        <v>349.5625612907812</v>
       </c>
       <c r="H35" t="n">
-        <v>215.1578023385658</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I35" t="n">
-        <v>43.86815211056014</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J35" t="n">
-        <v>123.5423078192116</v>
+        <v>123.5423078192115</v>
       </c>
       <c r="K35" t="n">
-        <v>350.2182794214484</v>
+        <v>350.2182794214483</v>
       </c>
       <c r="L35" t="n">
-        <v>686.4129286846431</v>
+        <v>686.4129286846428</v>
       </c>
       <c r="M35" t="n">
-        <v>1089.370213448356</v>
+        <v>1089.370213448355</v>
       </c>
       <c r="N35" t="n">
         <v>1492.005332341421</v>
       </c>
       <c r="O35" t="n">
-        <v>1835.292898976575</v>
+        <v>1835.292898976574</v>
       </c>
       <c r="P35" t="n">
-        <v>2084.133322245723</v>
+        <v>2084.133322245722</v>
       </c>
       <c r="Q35" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="R35" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="S35" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="T35" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="U35" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="V35" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="W35" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="X35" t="n">
-        <v>2193.407605528007</v>
+        <v>1829.99072240204</v>
       </c>
       <c r="Y35" t="n">
-        <v>2193.407605528007</v>
+        <v>1443.843684605626</v>
       </c>
     </row>
     <row r="36">
@@ -6995,28 +6995,28 @@
         <v>1068.601609700336</v>
       </c>
       <c r="C36" t="n">
-        <v>879.1893354332998</v>
+        <v>879.1893354332997</v>
       </c>
       <c r="D36" t="n">
-        <v>718.4092191943315</v>
+        <v>718.4092191943314</v>
       </c>
       <c r="E36" t="n">
-        <v>544.8460153157459</v>
+        <v>544.8460153157458</v>
       </c>
       <c r="F36" t="n">
-        <v>384.41829903299</v>
+        <v>384.4182990329899</v>
       </c>
       <c r="G36" t="n">
         <v>235.172613954747</v>
       </c>
       <c r="H36" t="n">
-        <v>117.838354211276</v>
+        <v>117.8383542112759</v>
       </c>
       <c r="I36" t="n">
-        <v>43.86815211056014</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J36" t="n">
-        <v>84.64441493403784</v>
+        <v>84.64441493403783</v>
       </c>
       <c r="K36" t="n">
         <v>281.0924089280009</v>
@@ -7025,37 +7025,37 @@
         <v>611.5275223757105</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5012976418175</v>
+        <v>1041.884378369233</v>
       </c>
       <c r="N36" t="n">
-        <v>1438.668308613576</v>
+        <v>1502.051389340991</v>
       </c>
       <c r="O36" t="n">
-        <v>1803.884140369587</v>
+        <v>1867.267221097002</v>
       </c>
       <c r="P36" t="n">
-        <v>2074.925541604159</v>
+        <v>2138.308622331574</v>
       </c>
       <c r="Q36" t="n">
-        <v>2193.407605528007</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="R36" t="n">
-        <v>2119.501029127939</v>
+        <v>2119.501029127938</v>
       </c>
       <c r="S36" t="n">
-        <v>1944.575360094571</v>
+        <v>1944.57536009457</v>
       </c>
       <c r="T36" t="n">
         <v>1731.469318047318</v>
       </c>
       <c r="U36" t="n">
-        <v>1491.910886355031</v>
+        <v>1692.286150075247</v>
       </c>
       <c r="V36" t="n">
-        <v>1472.778155691944</v>
+        <v>1692.286150075247</v>
       </c>
       <c r="W36" t="n">
-        <v>1472.778155691944</v>
+        <v>1692.286150075247</v>
       </c>
       <c r="X36" t="n">
         <v>1472.778155691944</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1739.270312651951</v>
+        <v>473.9546911826635</v>
       </c>
       <c r="C37" t="n">
-        <v>1739.270312651951</v>
+        <v>473.9546911826635</v>
       </c>
       <c r="D37" t="n">
-        <v>1739.270312651951</v>
+        <v>327.305549515279</v>
       </c>
       <c r="E37" t="n">
-        <v>1739.270312651951</v>
+        <v>184.1983361695972</v>
       </c>
       <c r="F37" t="n">
-        <v>1739.270312651951</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="G37" t="n">
-        <v>1739.270312651951</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H37" t="n">
-        <v>1739.270312651951</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I37" t="n">
-        <v>1739.270312651951</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J37" t="n">
-        <v>1739.270312651951</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K37" t="n">
-        <v>1768.507957505852</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L37" t="n">
-        <v>1859.009322658421</v>
+        <v>163.6071621170297</v>
       </c>
       <c r="M37" t="n">
-        <v>1963.026212633427</v>
+        <v>267.624052092036</v>
       </c>
       <c r="N37" t="n">
-        <v>2072.585949713571</v>
+        <v>377.1837891721802</v>
       </c>
       <c r="O37" t="n">
-        <v>2151.784453310117</v>
+        <v>456.3822927687264</v>
       </c>
       <c r="P37" t="n">
-        <v>2193.407605528007</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Q37" t="n">
-        <v>2135.20494476433</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="R37" t="n">
-        <v>1967.468540863865</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.283085151423</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="T37" t="n">
-        <v>1739.270312651951</v>
+        <v>473.9546911826635</v>
       </c>
       <c r="U37" t="n">
-        <v>1739.270312651951</v>
+        <v>473.9546911826635</v>
       </c>
       <c r="V37" t="n">
-        <v>1739.270312651951</v>
+        <v>473.9546911826635</v>
       </c>
       <c r="W37" t="n">
-        <v>1739.270312651951</v>
+        <v>473.9546911826635</v>
       </c>
       <c r="X37" t="n">
-        <v>1739.270312651951</v>
+        <v>473.9546911826635</v>
       </c>
       <c r="Y37" t="n">
-        <v>1739.270312651951</v>
+        <v>473.9546911826635</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>636.2259712178628</v>
+        <v>986.6941475055004</v>
       </c>
       <c r="C38" t="n">
-        <v>282.4830445702074</v>
+        <v>632.951220857845</v>
       </c>
       <c r="D38" t="n">
-        <v>282.4830445702074</v>
+        <v>291.7672212192315</v>
       </c>
       <c r="E38" t="n">
-        <v>282.4830445702074</v>
+        <v>291.7672212192315</v>
       </c>
       <c r="F38" t="n">
-        <v>282.4830445702074</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="G38" t="n">
-        <v>282.4830445702074</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H38" t="n">
         <v>43.86815211056012</v>
@@ -7174,16 +7174,16 @@
         <v>43.86815211056012</v>
       </c>
       <c r="J38" t="n">
-        <v>123.5423078192117</v>
+        <v>123.5423078192116</v>
       </c>
       <c r="K38" t="n">
-        <v>350.2182794214485</v>
+        <v>350.2182794214483</v>
       </c>
       <c r="L38" t="n">
-        <v>686.412928684643</v>
+        <v>686.4129286846428</v>
       </c>
       <c r="M38" t="n">
-        <v>1089.370213448355</v>
+        <v>1089.370213448356</v>
       </c>
       <c r="N38" t="n">
         <v>1492.005332341421</v>
@@ -7198,28 +7198,28 @@
         <v>2193.407605528006</v>
       </c>
       <c r="R38" t="n">
-        <v>2193.407605528006</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="S38" t="n">
-        <v>2193.407605528006</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="T38" t="n">
-        <v>1976.887489187632</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="U38" t="n">
-        <v>1724.359901930424</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="V38" t="n">
-        <v>1400.238908385826</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="W38" t="n">
-        <v>1400.238908385826</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="X38" t="n">
-        <v>1400.238908385826</v>
+        <v>1750.707084673463</v>
       </c>
       <c r="Y38" t="n">
-        <v>1014.091870589412</v>
+        <v>1364.560046877049</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1068.601609700336</v>
+        <v>534.2839115409795</v>
       </c>
       <c r="C39" t="n">
-        <v>879.1893354332997</v>
+        <v>344.8716372739432</v>
       </c>
       <c r="D39" t="n">
-        <v>718.4092191943314</v>
+        <v>344.8716372739432</v>
       </c>
       <c r="E39" t="n">
-        <v>544.8460153157458</v>
+        <v>171.3084333953576</v>
       </c>
       <c r="F39" t="n">
-        <v>384.4182990329899</v>
+        <v>171.3084333953576</v>
       </c>
       <c r="G39" t="n">
-        <v>235.172613954747</v>
+        <v>171.3084333953576</v>
       </c>
       <c r="H39" t="n">
-        <v>117.8383542112759</v>
+        <v>53.97417365188659</v>
       </c>
       <c r="I39" t="n">
         <v>43.86815211056012</v>
       </c>
       <c r="J39" t="n">
-        <v>43.86815211056012</v>
+        <v>84.64441493403783</v>
       </c>
       <c r="K39" t="n">
-        <v>240.3161461045231</v>
+        <v>281.0924089280009</v>
       </c>
       <c r="L39" t="n">
-        <v>570.7512595522329</v>
+        <v>611.5275223757105</v>
       </c>
       <c r="M39" t="n">
-        <v>1001.108115545755</v>
+        <v>1041.884378369233</v>
       </c>
       <c r="N39" t="n">
-        <v>1461.275126517514</v>
+        <v>1502.051389340991</v>
       </c>
       <c r="O39" t="n">
-        <v>1826.490958273524</v>
+        <v>1867.267221097002</v>
       </c>
       <c r="P39" t="n">
-        <v>2097.532359508096</v>
+        <v>2138.308622331574</v>
       </c>
       <c r="Q39" t="n">
         <v>2193.407605528006</v>
@@ -7280,25 +7280,25 @@
         <v>2119.501029127938</v>
       </c>
       <c r="S39" t="n">
-        <v>2119.501029127938</v>
+        <v>1944.57536009457</v>
       </c>
       <c r="T39" t="n">
-        <v>2119.501029127938</v>
+        <v>1731.469318047318</v>
       </c>
       <c r="U39" t="n">
-        <v>2119.501029127938</v>
+        <v>1491.91088635503</v>
       </c>
       <c r="V39" t="n">
-        <v>1876.421311031572</v>
+        <v>1248.831168258664</v>
       </c>
       <c r="W39" t="n">
-        <v>1607.022741761863</v>
+        <v>979.4325989889554</v>
       </c>
       <c r="X39" t="n">
-        <v>1472.778155691944</v>
+        <v>759.9246046056518</v>
       </c>
       <c r="Y39" t="n">
-        <v>1247.137462627271</v>
+        <v>534.2839115409795</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.86815211056012</v>
+        <v>495.4441161536349</v>
       </c>
       <c r="C40" t="n">
-        <v>43.86815211056012</v>
+        <v>327.305549515279</v>
       </c>
       <c r="D40" t="n">
-        <v>43.86815211056012</v>
+        <v>327.305549515279</v>
       </c>
       <c r="E40" t="n">
-        <v>43.86815211056012</v>
+        <v>184.1983361695972</v>
       </c>
       <c r="F40" t="n">
         <v>43.86815211056012</v>
@@ -7365,19 +7365,19 @@
         <v>498.0054449866161</v>
       </c>
       <c r="U40" t="n">
-        <v>498.0054449866161</v>
+        <v>495.4441161536349</v>
       </c>
       <c r="V40" t="n">
-        <v>498.0054449866161</v>
+        <v>495.4441161536349</v>
       </c>
       <c r="W40" t="n">
-        <v>204.76230651254</v>
+        <v>495.4441161536349</v>
       </c>
       <c r="X40" t="n">
-        <v>43.86815211056012</v>
+        <v>495.4441161536349</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.86815211056012</v>
+        <v>495.4441161536349</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>636.3550716441044</v>
+        <v>792.4794741372268</v>
       </c>
       <c r="C41" t="n">
-        <v>636.3550716441044</v>
+        <v>792.4794741372268</v>
       </c>
       <c r="D41" t="n">
-        <v>636.3550716441044</v>
+        <v>451.2954744986134</v>
       </c>
       <c r="E41" t="n">
-        <v>636.3550716441044</v>
+        <v>451.2954744986134</v>
       </c>
       <c r="F41" t="n">
-        <v>636.3550716441044</v>
+        <v>451.2954744986134</v>
       </c>
       <c r="G41" t="n">
-        <v>215.1578023385658</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H41" t="n">
-        <v>215.1578023385658</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I41" t="n">
         <v>43.86815211056012</v>
       </c>
       <c r="J41" t="n">
-        <v>123.5423078192116</v>
+        <v>123.5423078192115</v>
       </c>
       <c r="K41" t="n">
         <v>350.2182794214483</v>
       </c>
       <c r="L41" t="n">
-        <v>686.4129286846426</v>
+        <v>686.4129286846428</v>
       </c>
       <c r="M41" t="n">
         <v>1089.370213448355</v>
@@ -7426,7 +7426,7 @@
         <v>1492.005332341421</v>
       </c>
       <c r="O41" t="n">
-        <v>1835.292898976575</v>
+        <v>1835.292898976574</v>
       </c>
       <c r="P41" t="n">
         <v>2084.133322245722</v>
@@ -7435,28 +7435,28 @@
         <v>2193.407605528006</v>
       </c>
       <c r="R41" t="n">
-        <v>2193.407605528006</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="S41" t="n">
-        <v>2006.241368427951</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="T41" t="n">
-        <v>1789.721252087577</v>
+        <v>1710.437614359</v>
       </c>
       <c r="U41" t="n">
-        <v>1727.228551986451</v>
+        <v>1457.910027101791</v>
       </c>
       <c r="V41" t="n">
-        <v>1727.228551986451</v>
+        <v>1133.789033557193</v>
       </c>
       <c r="W41" t="n">
-        <v>1385.918992566484</v>
+        <v>792.4794741372268</v>
       </c>
       <c r="X41" t="n">
-        <v>1022.502109440519</v>
+        <v>792.4794741372268</v>
       </c>
       <c r="Y41" t="n">
-        <v>636.3550716441044</v>
+        <v>792.4794741372268</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>567.6237464951502</v>
+        <v>877.5890572107564</v>
       </c>
       <c r="C42" t="n">
-        <v>378.2114722281139</v>
+        <v>688.1767829437201</v>
       </c>
       <c r="D42" t="n">
-        <v>217.4313559891457</v>
+        <v>527.3966667047519</v>
       </c>
       <c r="E42" t="n">
-        <v>43.86815211056012</v>
+        <v>353.8334628261663</v>
       </c>
       <c r="F42" t="n">
-        <v>43.86815211056012</v>
+        <v>193.4057465434104</v>
       </c>
       <c r="G42" t="n">
-        <v>43.86815211056012</v>
+        <v>193.4057465434104</v>
       </c>
       <c r="H42" t="n">
-        <v>43.86815211056012</v>
+        <v>117.8383542112759</v>
       </c>
       <c r="I42" t="n">
         <v>43.86815211056012</v>
       </c>
       <c r="J42" t="n">
-        <v>84.64441493403783</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K42" t="n">
-        <v>281.0924089280009</v>
+        <v>240.3161461045231</v>
       </c>
       <c r="L42" t="n">
-        <v>611.5275223757105</v>
+        <v>570.7512595522329</v>
       </c>
       <c r="M42" t="n">
-        <v>1041.884378369233</v>
+        <v>1001.108115545755</v>
       </c>
       <c r="N42" t="n">
-        <v>1502.051389340991</v>
+        <v>1461.275126517514</v>
       </c>
       <c r="O42" t="n">
-        <v>1867.267221097002</v>
+        <v>1826.490958273524</v>
       </c>
       <c r="P42" t="n">
-        <v>2074.925541604158</v>
+        <v>2097.532359508096</v>
       </c>
       <c r="Q42" t="n">
         <v>2193.407605528006</v>
       </c>
       <c r="R42" t="n">
-        <v>2119.501029127938</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="S42" t="n">
-        <v>1944.57536009457</v>
+        <v>2018.481936494639</v>
       </c>
       <c r="T42" t="n">
-        <v>1943.345005928423</v>
+        <v>1805.375894447386</v>
       </c>
       <c r="U42" t="n">
-        <v>1703.786574236136</v>
+        <v>1565.817462755098</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.70685613977</v>
+        <v>1322.737744658732</v>
       </c>
       <c r="W42" t="n">
-        <v>1191.308286870061</v>
+        <v>1322.737744658732</v>
       </c>
       <c r="X42" t="n">
-        <v>971.8002924867576</v>
+        <v>1103.229750275429</v>
       </c>
       <c r="Y42" t="n">
-        <v>746.1595994220852</v>
+        <v>877.5890572107564</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1739.27031265195</v>
+        <v>327.305549515279</v>
       </c>
       <c r="C43" t="n">
-        <v>1739.27031265195</v>
+        <v>327.305549515279</v>
       </c>
       <c r="D43" t="n">
-        <v>1739.27031265195</v>
+        <v>327.305549515279</v>
       </c>
       <c r="E43" t="n">
-        <v>1739.27031265195</v>
+        <v>184.1983361695972</v>
       </c>
       <c r="F43" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="G43" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H43" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I43" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J43" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K43" t="n">
-        <v>1768.507957505851</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L43" t="n">
-        <v>1859.00932265842</v>
+        <v>163.6071621170297</v>
       </c>
       <c r="M43" t="n">
-        <v>1963.026212633426</v>
+        <v>267.624052092036</v>
       </c>
       <c r="N43" t="n">
-        <v>2072.58594971357</v>
+        <v>377.1837891721802</v>
       </c>
       <c r="O43" t="n">
-        <v>2151.784453310117</v>
+        <v>456.3822927687264</v>
       </c>
       <c r="P43" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Q43" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="R43" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="S43" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="T43" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="U43" t="n">
-        <v>1901.881118408783</v>
+        <v>327.305549515279</v>
       </c>
       <c r="V43" t="n">
-        <v>1739.27031265195</v>
+        <v>327.305549515279</v>
       </c>
       <c r="W43" t="n">
-        <v>1739.27031265195</v>
+        <v>327.305549515279</v>
       </c>
       <c r="X43" t="n">
-        <v>1739.27031265195</v>
+        <v>327.305549515279</v>
       </c>
       <c r="Y43" t="n">
-        <v>1739.27031265195</v>
+        <v>327.305549515279</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1088.085108940077</v>
+        <v>728.9702996545989</v>
       </c>
       <c r="C44" t="n">
-        <v>734.3421822924213</v>
+        <v>375.2273730069435</v>
       </c>
       <c r="D44" t="n">
-        <v>734.3421822924213</v>
+        <v>375.2273730069435</v>
       </c>
       <c r="E44" t="n">
-        <v>734.3421822924213</v>
+        <v>375.2273730069435</v>
       </c>
       <c r="F44" t="n">
-        <v>327.0702129590743</v>
+        <v>375.2273730069435</v>
       </c>
       <c r="G44" t="n">
-        <v>327.0702129590743</v>
+        <v>375.2273730069435</v>
       </c>
       <c r="H44" t="n">
         <v>43.86815211056012</v>
@@ -7648,13 +7648,13 @@
         <v>43.86815211056012</v>
       </c>
       <c r="J44" t="n">
-        <v>123.5423078192111</v>
+        <v>123.5423078192115</v>
       </c>
       <c r="K44" t="n">
-        <v>350.2182794214478</v>
+        <v>350.2182794214483</v>
       </c>
       <c r="L44" t="n">
-        <v>686.4129286846423</v>
+        <v>686.4129286846428</v>
       </c>
       <c r="M44" t="n">
         <v>1089.370213448355</v>
@@ -7663,7 +7663,7 @@
         <v>1492.005332341421</v>
       </c>
       <c r="O44" t="n">
-        <v>1835.292898976575</v>
+        <v>1835.292898976574</v>
       </c>
       <c r="P44" t="n">
         <v>2084.133322245722</v>
@@ -7672,28 +7672,28 @@
         <v>2193.407605528006</v>
       </c>
       <c r="R44" t="n">
-        <v>2193.407605528006</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="S44" t="n">
-        <v>2193.407605528006</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="T44" t="n">
-        <v>2193.407605528006</v>
+        <v>1856.400119948528</v>
       </c>
       <c r="U44" t="n">
-        <v>2193.407605528006</v>
+        <v>1856.400119948528</v>
       </c>
       <c r="V44" t="n">
-        <v>2193.407605528006</v>
+        <v>1856.400119948528</v>
       </c>
       <c r="W44" t="n">
-        <v>1852.09804610804</v>
+        <v>1856.400119948528</v>
       </c>
       <c r="X44" t="n">
-        <v>1852.09804610804</v>
+        <v>1492.983236822562</v>
       </c>
       <c r="Y44" t="n">
-        <v>1465.951008311626</v>
+        <v>1106.836199026148</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>534.2839115409795</v>
+        <v>743.7797696946645</v>
       </c>
       <c r="C45" t="n">
-        <v>527.4571573063569</v>
+        <v>554.3674954276282</v>
       </c>
       <c r="D45" t="n">
-        <v>366.6770410673886</v>
+        <v>470.87581321503</v>
       </c>
       <c r="E45" t="n">
-        <v>193.1138371888031</v>
+        <v>470.87581321503</v>
       </c>
       <c r="F45" t="n">
-        <v>193.1138371888031</v>
+        <v>310.4480969322741</v>
       </c>
       <c r="G45" t="n">
-        <v>43.86815211056012</v>
+        <v>161.2024118540312</v>
       </c>
       <c r="H45" t="n">
         <v>43.86815211056012</v>
@@ -7727,16 +7727,16 @@
         <v>43.86815211056012</v>
       </c>
       <c r="J45" t="n">
-        <v>43.86815211056012</v>
+        <v>84.64441493403783</v>
       </c>
       <c r="K45" t="n">
-        <v>240.3161461045231</v>
+        <v>281.0924089280009</v>
       </c>
       <c r="L45" t="n">
-        <v>570.7512595522329</v>
+        <v>611.5275223757105</v>
       </c>
       <c r="M45" t="n">
-        <v>1001.108115545755</v>
+        <v>1041.884378369233</v>
       </c>
       <c r="N45" t="n">
         <v>1438.668308613575</v>
@@ -7754,25 +7754,25 @@
         <v>2119.501029127938</v>
       </c>
       <c r="S45" t="n">
-        <v>1944.57536009457</v>
+        <v>2119.501029127938</v>
       </c>
       <c r="T45" t="n">
-        <v>1731.469318047318</v>
+        <v>2119.501029127938</v>
       </c>
       <c r="U45" t="n">
-        <v>1491.91088635503</v>
+        <v>1879.94259743565</v>
       </c>
       <c r="V45" t="n">
-        <v>1248.831168258664</v>
+        <v>1636.862879339285</v>
       </c>
       <c r="W45" t="n">
-        <v>979.4325989889554</v>
+        <v>1367.464310069576</v>
       </c>
       <c r="X45" t="n">
-        <v>759.9246046056518</v>
+        <v>1147.956315686272</v>
       </c>
       <c r="Y45" t="n">
-        <v>534.2839115409795</v>
+        <v>922.3156226215997</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>498.0054449866161</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="C46" t="n">
-        <v>329.8668783482601</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="D46" t="n">
-        <v>329.8668783482601</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="E46" t="n">
-        <v>329.8668783482601</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="F46" t="n">
-        <v>189.5366942892231</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="G46" t="n">
-        <v>189.5366942892231</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H46" t="n">
         <v>43.86815211056012</v>
@@ -7833,25 +7833,25 @@
         <v>498.0054449866161</v>
       </c>
       <c r="S46" t="n">
-        <v>498.0054449866161</v>
+        <v>274.8199892741745</v>
       </c>
       <c r="T46" t="n">
-        <v>498.0054449866161</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="U46" t="n">
-        <v>498.0054449866161</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="V46" t="n">
-        <v>498.0054449866161</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="W46" t="n">
-        <v>498.0054449866161</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0054449866161</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="Y46" t="n">
-        <v>498.0054449866161</v>
+        <v>52.3853037437722</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>54.86578968612497</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8780,16 +8780,16 @@
         <v>269.9708882526448</v>
       </c>
       <c r="N12" t="n">
-        <v>201.3940163681488</v>
+        <v>252.098905607985</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>29.46478203976346</v>
+        <v>95.2675766979532</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.213011969896</v>
+        <v>81.21301196989599</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9014,10 +9014,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>239.5487420989438</v>
+        <v>42.36690697389304</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>252.098905607985</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>81.21301196989599</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9245,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>54.86578968612496</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>269.9708882526448</v>
+        <v>269.9708882526449</v>
       </c>
       <c r="N18" t="n">
-        <v>201.3940163681488</v>
+        <v>252.098905607985</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>29.46478203976343</v>
+        <v>95.2675766979532</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.21301196989599</v>
+        <v>81.21301196989597</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9482,7 +9482,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>54.86578968612497</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9491,16 +9491,16 @@
         <v>269.970888252645</v>
       </c>
       <c r="N21" t="n">
-        <v>86.08553774432494</v>
+        <v>252.098905607985</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>95.26757669795323</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9719,7 +9719,7 @@
         <v>40.51884663444584</v>
       </c>
       <c r="K24" t="n">
-        <v>148.5383039842133</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>113.2949128528929</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,7 +9953,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>40.51884663444584</v>
       </c>
       <c r="K27" t="n">
         <v>171.373473584151</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>72.10676858675373</v>
+        <v>113.2949128528929</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,7 +10190,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>40.51884663444584</v>
       </c>
       <c r="K30" t="n">
         <v>171.373473584151</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>72.10676858675465</v>
+        <v>113.2949128528929</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.2949128528938</v>
+        <v>113.2949128528929</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10673,7 +10673,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M36" t="n">
-        <v>237.7535674439241</v>
+        <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
         <v>310.6138585746227</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>72.10676858675373</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10901,7 +10901,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>40.51884663444584</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
         <v>171.373473584151</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.2949128528929</v>
+        <v>72.10676858675373</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11138,7 +11138,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>40.51884663444584</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
@@ -11156,10 +11156,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>142.3405602126029</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>113.2949128528929</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11375,7 +11375,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>40.51884663444584</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
         <v>171.373473584151</v>
@@ -11387,7 +11387,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>287.778688974685</v>
+        <v>246.5905447085459</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -23263,22 +23263,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>63.42319069165706</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>97.12994311106593</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.9335161168677</v>
+        <v>176.2869442652055</v>
       </c>
       <c r="H11" t="n">
         <v>337.7565816866972</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T11" t="n">
         <v>218.5057460574135</v>
@@ -23320,13 +23320,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>98.64146172027444</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>85.43374534413596</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>107.9365984678797</v>
       </c>
     </row>
     <row r="12">
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.2605703896413</v>
@@ -23360,7 +23360,7 @@
         <v>90.69820171619743</v>
       </c>
       <c r="J12" t="n">
-        <v>6.744564135339218</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>104.6672283897153</v>
+        <v>94.72996155578599</v>
       </c>
       <c r="S12" t="n">
-        <v>182.6000704870501</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>213.0199265699567</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1962251491922</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23402,10 +23402,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.78277938899126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23427,7 +23427,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>9.524408926536722</v>
       </c>
       <c r="G13" t="n">
         <v>168.2949770100594</v>
@@ -23436,13 +23436,13 @@
         <v>162.2164852645116</v>
       </c>
       <c r="I13" t="n">
-        <v>23.24704468747358</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J13" t="n">
-        <v>91.54969484442688</v>
+        <v>91.54969484442687</v>
       </c>
       <c r="K13" t="n">
-        <v>19.88364031691906</v>
+        <v>19.88364031691904</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>9.399185363825382</v>
+        <v>9.399185363825367</v>
       </c>
       <c r="Q13" t="n">
         <v>93.23694401510255</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.7382714272631</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>63.423190691657</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
@@ -23509,7 +23509,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.9335161168677</v>
+        <v>176.2869442652054</v>
       </c>
       <c r="H14" t="n">
         <v>337.7565816866972</v>
@@ -23551,13 +23551,13 @@
         <v>218.5057460574135</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V14" t="n">
-        <v>54.96241175190693</v>
+        <v>46.53081465858173</v>
       </c>
       <c r="W14" t="n">
-        <v>63.54749487519666</v>
+        <v>63.54749487519661</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
@@ -23576,13 +23576,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -23594,10 +23594,10 @@
         <v>121.0607743439406</v>
       </c>
       <c r="I15" t="n">
-        <v>90.69820171619743</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.744564135339218</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>100.9570443323096</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>130.7409830882756</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
@@ -23673,13 +23673,13 @@
         <v>162.2164852645116</v>
       </c>
       <c r="I16" t="n">
-        <v>23.24704468747358</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J16" t="n">
-        <v>91.54969484442688</v>
+        <v>91.54969484442687</v>
       </c>
       <c r="K16" t="n">
-        <v>19.88364031691906</v>
+        <v>19.88364031691904</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>9.399185363825382</v>
+        <v>9.399185363825367</v>
       </c>
       <c r="Q16" t="n">
         <v>93.23694401510255</v>
@@ -23712,7 +23712,7 @@
         <v>288.6344225367242</v>
       </c>
       <c r="V16" t="n">
-        <v>245.1090151844499</v>
+        <v>115.70654189254</v>
       </c>
       <c r="W16" t="n">
         <v>290.3107070893353</v>
@@ -23734,19 +23734,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>75.85652843060859</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>97.12994311106587</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.9335161168677</v>
+        <v>143.5845471662974</v>
       </c>
       <c r="H17" t="n">
         <v>337.7565816866972</v>
@@ -23791,16 +23791,16 @@
         <v>250.0781689449873</v>
       </c>
       <c r="V17" t="n">
-        <v>46.53081465858179</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>63.54749487519666</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>118.1361424430438</v>
       </c>
       <c r="Y17" t="n">
-        <v>140.6389955667877</v>
+        <v>107.9365984678796</v>
       </c>
     </row>
     <row r="18">
@@ -23822,7 +23822,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.2605703896413</v>
@@ -23831,7 +23831,7 @@
         <v>121.0607743439406</v>
       </c>
       <c r="I18" t="n">
-        <v>90.69820171619743</v>
+        <v>90.69820171619742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T18" t="n">
-        <v>213.0199265699567</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>132.6915530702662</v>
+        <v>99.66902130162282</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23913,10 +23913,10 @@
         <v>152.6495179793835</v>
       </c>
       <c r="J19" t="n">
-        <v>91.54969484442687</v>
+        <v>91.54969484442685</v>
       </c>
       <c r="K19" t="n">
-        <v>19.88364031691904</v>
+        <v>19.88364031691903</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>9.399185363825367</v>
+        <v>9.399185363825353</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.23694401510255</v>
+        <v>93.23694401510254</v>
       </c>
       <c r="R19" t="n">
         <v>185.183811174339</v>
@@ -23943,10 +23943,10 @@
         <v>228.3660933928399</v>
       </c>
       <c r="T19" t="n">
-        <v>222.0276946227434</v>
+        <v>92.62522133083345</v>
       </c>
       <c r="U19" t="n">
-        <v>159.2319492448142</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23974,19 +23974,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>63.42319069165706</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>128.8502806894433</v>
       </c>
       <c r="G20" t="n">
         <v>417.9335161168677</v>
       </c>
       <c r="H20" t="n">
-        <v>63.40761273612697</v>
+        <v>63.40761273612702</v>
       </c>
       <c r="I20" t="n">
         <v>206.1329861685091</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S20" t="n">
         <v>206.9021266852166</v>
@@ -24025,16 +24025,16 @@
         <v>218.5057460574135</v>
       </c>
       <c r="U20" t="n">
-        <v>146.4859918869093</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V20" t="n">
-        <v>46.53081465858173</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>63.54749487519661</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>118.136142443044</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -24050,7 +24050,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>77.61994202224206</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -24071,7 +24071,7 @@
         <v>90.69820171619743</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,16 +24101,16 @@
         <v>182.6000704870501</v>
       </c>
       <c r="T21" t="n">
-        <v>213.0199265699567</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1962251491922</v>
+        <v>13.73802511363814</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24150,10 +24150,10 @@
         <v>152.6495179793835</v>
       </c>
       <c r="J22" t="n">
-        <v>91.54969484442687</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K22" t="n">
-        <v>19.88364031691904</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>9.399185363825367</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q22" t="n">
         <v>93.23694401510255</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>210.9763565528754</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>299.7212513188715</v>
       </c>
       <c r="G23" t="n">
         <v>416.9852966124832</v>
       </c>
       <c r="H23" t="n">
-        <v>328.0456286874195</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>169.5767537257256</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>78.49080135129142</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>185.2945747290548</v>
       </c>
       <c r="T23" t="n">
         <v>214.3549151769703</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0023113846365</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.05283337515201</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>110.8109832855535</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.7532282274605</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>116.1609171460363</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>210.9749816267804</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,16 +24369,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8696383840148</v>
+        <v>144.0593921181018</v>
       </c>
       <c r="H25" t="n">
         <v>158.4348382074968</v>
@@ -24420,7 +24420,7 @@
         <v>220.2103386750983</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>288.6112222480308</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24429,7 +24429,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>60.93475770897794</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
         <v>217.1412728141684</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>336.2622161437656</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>416.9852966124832</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>328.0456286874195</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>169.5767537257256</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>185.2945747290548</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>214.3549151769703</v>
@@ -24511,7 +24511,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.2993733100064</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24524,10 +24524,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>124.1434552139263</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>173.1764123430336</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>196.6257937581506</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24618,13 +24618,13 @@
         <v>167.8696383840148</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>158.4348382074968</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.8584254797875</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>61.47825398307332</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>57.62063415604023</v>
       </c>
       <c r="R28" t="n">
-        <v>133.8552717405633</v>
+        <v>166.0590398614607</v>
       </c>
       <c r="S28" t="n">
         <v>220.9536011553171</v>
@@ -24657,13 +24657,13 @@
         <v>220.2103386750983</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6112222480308</v>
+        <v>129.3260093900708</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>356.4160452026595</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>416.9852966124832</v>
@@ -24700,7 +24700,7 @@
         <v>328.0456286874195</v>
       </c>
       <c r="I29" t="n">
-        <v>169.5767537257256</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>78.49080135129142</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>10.22211981305475</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>250.0023113846365</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>21.44774278088835</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>142.7341789030545</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>210.9749816267804</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24843,22 +24843,22 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>16.56698212400383</v>
+        <v>144.0593921181018</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>158.4348382074968</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>139.8584254797875</v>
       </c>
       <c r="J31" t="n">
         <v>61.47825398307332</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>328.0456286874195</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>169.5767537257256</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>78.49080135129142</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>94.87377129788166</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3549151769703</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>25.79196696244202</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>154.0902763085305</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>147.7532282274605</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>116.1609171460363</v>
       </c>
       <c r="I33" t="n">
-        <v>73.23050007970866</v>
+        <v>1.929874281886811</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>173.1764123430336</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>12.13053318683012</v>
       </c>
       <c r="G34" t="n">
-        <v>78.04523610707709</v>
+        <v>167.8696383840148</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>158.4348382074968</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.8584254797875</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>61.47825398307332</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>285.5345196030178</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>416.9852966124832</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>25.4081635990006</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>169.5767537257256</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25289,16 +25289,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>198.3715110830149</v>
       </c>
       <c r="V36" t="n">
-        <v>221.7075175589457</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.8696383840148</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>57.62063415604023</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>166.0590398614607</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>220.9536011553171</v>
       </c>
       <c r="T37" t="n">
-        <v>215.2476939006212</v>
+        <v>196.4000924091853</v>
       </c>
       <c r="U37" t="n">
         <v>288.6112222480308</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>157.7791712224288</v>
       </c>
       <c r="G38" t="n">
         <v>416.9852966124832</v>
       </c>
       <c r="H38" t="n">
-        <v>91.81688515236867</v>
+        <v>328.0456286874195</v>
       </c>
       <c r="I38" t="n">
         <v>169.5767537257256</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>78.49080135129142</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>185.2945747290548</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.3549151769703</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0023113846365</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.7532282274605</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.22553875379546</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>173.1764123430336</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>210.9749816267804</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1628473753645</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>84.41077423025033</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.8696383840148</v>
@@ -25605,16 +25605,16 @@
         <v>220.2103386750983</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6112222480308</v>
+        <v>286.0755067033795</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>62.63424255028249</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -25633,7 +25633,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -25642,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>13.63224744831047</v>
       </c>
       <c r="H41" t="n">
         <v>328.0456286874195</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>169.5767537257256</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>78.49080135129142</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>188.1345382845217</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>147.7532282274605</v>
       </c>
       <c r="H42" t="n">
-        <v>116.1609171460363</v>
+        <v>41.34919873722326</v>
       </c>
       <c r="I42" t="n">
-        <v>73.23050007970866</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>73.16751063606756</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>209.7569310022947</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.8696383840148</v>
@@ -25842,10 +25842,10 @@
         <v>220.2103386750983</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>119.6183257314071</v>
       </c>
       <c r="V43" t="n">
-        <v>84.12431748518537</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
         <v>290.3107070893353</v>
@@ -25876,13 +25876,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
         <v>416.9852966124832</v>
       </c>
       <c r="H44" t="n">
-        <v>47.67558844739047</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>169.5767537257256</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>78.49080135129142</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>185.2945747290548</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.3549151769703</v>
+        <v>144.5028805336327</v>
       </c>
       <c r="U44" t="n">
         <v>250.0023113846365</v>
@@ -25927,10 +25927,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>180.7596648320895</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>76.51554968610631</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>116.1609171460363</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>73.23050007970866</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>173.1764123430336</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>210.9749816267804</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -26034,13 +26034,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8696383840148</v>
+        <v>159.4376582671348</v>
       </c>
       <c r="H46" t="n">
-        <v>14.22298145062047</v>
+        <v>158.4348382074968</v>
       </c>
       <c r="I46" t="n">
         <v>139.8584254797875</v>
@@ -26073,10 +26073,10 @@
         <v>166.0590398614607</v>
       </c>
       <c r="S46" t="n">
-        <v>220.9536011553171</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.2103386750983</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>288.6112222480308</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>548632.5276203691</v>
+        <v>548632.5276203692</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>548632.5276203691</v>
+        <v>548632.5276203692</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>548632.5276203692</v>
+        <v>548632.5276203691</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750029.1672780754</v>
+        <v>750029.1672780756</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>750029.1672780751</v>
+        <v>750029.1672780754</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>750029.1672780755</v>
+        <v>750029.1672780754</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>750029.1672780755</v>
+        <v>750029.1672780754</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>750029.1672780754</v>
+        <v>750029.1672780752</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>750029.1672780755</v>
+        <v>750029.1672780754</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>95193.05604516009</v>
       </c>
       <c r="D2" t="n">
-        <v>95193.0560451601</v>
+        <v>95193.05604516009</v>
       </c>
       <c r="E2" t="n">
         <v>186154.278142744</v>
@@ -26328,22 +26328,22 @@
         <v>186154.278142744</v>
       </c>
       <c r="G2" t="n">
-        <v>186154.2781427439</v>
+        <v>186154.278142744</v>
       </c>
       <c r="H2" t="n">
-        <v>186154.2781427439</v>
+        <v>186154.2781427441</v>
       </c>
       <c r="I2" t="n">
         <v>255641.874159289</v>
       </c>
       <c r="J2" t="n">
-        <v>255641.8741592891</v>
+        <v>255641.874159289</v>
       </c>
       <c r="K2" t="n">
-        <v>255641.8741592891</v>
+        <v>255641.874159289</v>
       </c>
       <c r="L2" t="n">
-        <v>255641.8741592891</v>
+        <v>255641.874159289</v>
       </c>
       <c r="M2" t="n">
         <v>255641.8741592891</v>
@@ -26355,7 +26355,7 @@
         <v>255641.8741592891</v>
       </c>
       <c r="P2" t="n">
-        <v>255641.874159289</v>
+        <v>255641.8741592891</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>68368.86045835789</v>
+        <v>68368.8604583579</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23791.68139550617</v>
+        <v>23791.68139550618</v>
       </c>
       <c r="F5" t="n">
         <v>23791.68139550618</v>
@@ -26496,13 +26496,13 @@
         <v>45593.01700473825</v>
       </c>
       <c r="K5" t="n">
-        <v>45593.01700473826</v>
+        <v>45593.01700473825</v>
       </c>
       <c r="L5" t="n">
-        <v>45593.01700473826</v>
+        <v>45593.01700473825</v>
       </c>
       <c r="M5" t="n">
-        <v>45593.01700473826</v>
+        <v>45593.01700473825</v>
       </c>
       <c r="N5" t="n">
         <v>45593.01700473825</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50988.44981792008</v>
+        <v>34183.98921007669</v>
       </c>
       <c r="C6" t="n">
-        <v>50988.44981792008</v>
+        <v>34183.98921007669</v>
       </c>
       <c r="D6" t="n">
-        <v>50988.4498179201</v>
+        <v>34183.98921007669</v>
       </c>
       <c r="E6" t="n">
-        <v>-192682.9139981725</v>
+        <v>-204433.9733783724</v>
       </c>
       <c r="F6" t="n">
-        <v>151305.5468717157</v>
+        <v>139554.4874915158</v>
       </c>
       <c r="G6" t="n">
-        <v>151305.5468717156</v>
+        <v>139554.4874915158</v>
       </c>
       <c r="H6" t="n">
-        <v>151305.5468717156</v>
+        <v>139554.487491516</v>
       </c>
       <c r="I6" t="n">
-        <v>-52286.93414143441</v>
+        <v>-60177.57152071521</v>
       </c>
       <c r="J6" t="n">
-        <v>198126.8064755139</v>
+        <v>190236.1690962331</v>
       </c>
       <c r="K6" t="n">
-        <v>198126.8064755139</v>
+        <v>190236.1690962331</v>
       </c>
       <c r="L6" t="n">
-        <v>198126.8064755139</v>
+        <v>190236.1690962331</v>
       </c>
       <c r="M6" t="n">
-        <v>129757.946017156</v>
+        <v>121867.3086378753</v>
       </c>
       <c r="N6" t="n">
-        <v>198126.8064755139</v>
+        <v>190236.1690962332</v>
       </c>
       <c r="O6" t="n">
-        <v>198126.8064755139</v>
+        <v>190236.1690962332</v>
       </c>
       <c r="P6" t="n">
-        <v>198126.8064755138</v>
+        <v>190236.1690962332</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>326.2047744638306</v>
+        <v>326.2047744638307</v>
       </c>
       <c r="F3" t="n">
-        <v>326.2047744638306</v>
+        <v>326.2047744638307</v>
       </c>
       <c r="G3" t="n">
         <v>326.2047744638307</v>
       </c>
       <c r="H3" t="n">
-        <v>326.2047744638307</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="I3" t="n">
         <v>562.0743761794752</v>
@@ -26801,13 +26801,13 @@
         <v>274.3489689505702</v>
       </c>
       <c r="F4" t="n">
+        <v>274.3489689505703</v>
+      </c>
+      <c r="G4" t="n">
+        <v>274.3489689505703</v>
+      </c>
+      <c r="H4" t="n">
         <v>274.3489689505702</v>
-      </c>
-      <c r="G4" t="n">
-        <v>274.3489689505702</v>
-      </c>
-      <c r="H4" t="n">
-        <v>274.3489689505703</v>
       </c>
       <c r="I4" t="n">
         <v>548.3519013820015</v>
@@ -26816,13 +26816,13 @@
         <v>548.3519013820015</v>
       </c>
       <c r="K4" t="n">
-        <v>548.3519013820018</v>
+        <v>548.3519013820015</v>
       </c>
       <c r="L4" t="n">
-        <v>548.3519013820018</v>
+        <v>548.3519013820015</v>
       </c>
       <c r="M4" t="n">
-        <v>548.3519013820018</v>
+        <v>548.3519013820015</v>
       </c>
       <c r="N4" t="n">
         <v>548.3519013820015</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>326.2047744638306</v>
+        <v>326.2047744638307</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>274.0029324314312</v>
+        <v>274.0029324314313</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.43012923207117</v>
       </c>
       <c r="I11" t="n">
-        <v>50.55682238197722</v>
+        <v>50.55682238197723</v>
       </c>
       <c r="J11" t="n">
         <v>111.3013968910535</v>
@@ -31767,10 +31767,10 @@
         <v>166.8119420289588</v>
       </c>
       <c r="L11" t="n">
-        <v>206.944964607843</v>
+        <v>206.9449646078431</v>
       </c>
       <c r="M11" t="n">
-        <v>230.2661471520486</v>
+        <v>230.2661471520487</v>
       </c>
       <c r="N11" t="n">
         <v>233.9920941488139</v>
@@ -31785,13 +31785,13 @@
         <v>141.613852616607</v>
       </c>
       <c r="R11" t="n">
-        <v>82.37572126196423</v>
+        <v>82.37572126196424</v>
       </c>
       <c r="S11" t="n">
-        <v>29.88298009284238</v>
+        <v>29.88298009284239</v>
       </c>
       <c r="T11" t="n">
-        <v>5.740548342574546</v>
+        <v>5.740548342574547</v>
       </c>
       <c r="U11" t="n">
         <v>0.1049100782195233</v>
@@ -31831,37 +31831,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7016480054505038</v>
       </c>
       <c r="H12" t="n">
-        <v>6.776442578956181</v>
+        <v>6.776442578956182</v>
       </c>
       <c r="I12" t="n">
         <v>24.15761773151954</v>
       </c>
       <c r="J12" t="n">
-        <v>66.29034949740921</v>
+        <v>66.29034949740922</v>
       </c>
       <c r="K12" t="n">
         <v>113.300765862593</v>
       </c>
       <c r="L12" t="n">
-        <v>152.3468618852069</v>
+        <v>152.346861885207</v>
       </c>
       <c r="M12" t="n">
         <v>177.7816020827877</v>
       </c>
       <c r="N12" t="n">
-        <v>182.4869520842518</v>
+        <v>182.4869520842519</v>
       </c>
       <c r="O12" t="n">
-        <v>166.9399094371643</v>
+        <v>166.9399094371644</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9839950057194</v>
+        <v>133.9839950057195</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.56475241505026</v>
+        <v>89.56475241505028</v>
       </c>
       <c r="R12" t="n">
         <v>43.5637244085848</v>
@@ -31870,10 +31870,10 @@
         <v>13.03280396088983</v>
       </c>
       <c r="T12" t="n">
-        <v>2.828133846530757</v>
+        <v>2.828133846530758</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.04616105299016474</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.5882381178855962</v>
       </c>
       <c r="H13" t="n">
-        <v>5.229971629928304</v>
+        <v>5.229971629928305</v>
       </c>
       <c r="I13" t="n">
         <v>17.68992449059593</v>
@@ -31922,22 +31922,22 @@
         <v>41.58843493451165</v>
       </c>
       <c r="K13" t="n">
-        <v>68.34257405979925</v>
+        <v>68.34257405979926</v>
       </c>
       <c r="L13" t="n">
-        <v>87.45496527182765</v>
+        <v>87.45496527182766</v>
       </c>
       <c r="M13" t="n">
-        <v>92.20899878819394</v>
+        <v>92.20899878819395</v>
       </c>
       <c r="N13" t="n">
-        <v>90.01647489425679</v>
+        <v>90.0164748942568</v>
       </c>
       <c r="O13" t="n">
-        <v>83.1447841535023</v>
+        <v>83.14478415350231</v>
       </c>
       <c r="P13" t="n">
-        <v>71.14472654863607</v>
+        <v>71.14472654863609</v>
       </c>
       <c r="Q13" t="n">
         <v>49.25692094403843</v>
@@ -31995,7 +31995,7 @@
         <v>13.43012923207117</v>
       </c>
       <c r="I14" t="n">
-        <v>50.55682238197722</v>
+        <v>50.55682238197723</v>
       </c>
       <c r="J14" t="n">
         <v>111.3013968910535</v>
@@ -32004,10 +32004,10 @@
         <v>166.8119420289588</v>
       </c>
       <c r="L14" t="n">
-        <v>206.944964607843</v>
+        <v>206.9449646078431</v>
       </c>
       <c r="M14" t="n">
-        <v>230.2661471520486</v>
+        <v>230.2661471520487</v>
       </c>
       <c r="N14" t="n">
         <v>233.9920941488139</v>
@@ -32022,13 +32022,13 @@
         <v>141.613852616607</v>
       </c>
       <c r="R14" t="n">
-        <v>82.37572126196423</v>
+        <v>82.37572126196424</v>
       </c>
       <c r="S14" t="n">
-        <v>29.88298009284238</v>
+        <v>29.88298009284239</v>
       </c>
       <c r="T14" t="n">
-        <v>5.740548342574546</v>
+        <v>5.740548342574547</v>
       </c>
       <c r="U14" t="n">
         <v>0.1049100782195233</v>
@@ -32068,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7016480054505038</v>
       </c>
       <c r="H15" t="n">
-        <v>6.776442578956181</v>
+        <v>6.776442578956182</v>
       </c>
       <c r="I15" t="n">
         <v>24.15761773151954</v>
       </c>
       <c r="J15" t="n">
-        <v>66.29034949740921</v>
+        <v>66.29034949740922</v>
       </c>
       <c r="K15" t="n">
         <v>113.300765862593</v>
       </c>
       <c r="L15" t="n">
-        <v>152.3468618852069</v>
+        <v>152.346861885207</v>
       </c>
       <c r="M15" t="n">
         <v>177.7816020827877</v>
       </c>
       <c r="N15" t="n">
-        <v>182.4869520842518</v>
+        <v>182.4869520842519</v>
       </c>
       <c r="O15" t="n">
-        <v>166.9399094371643</v>
+        <v>166.9399094371644</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9839950057194</v>
+        <v>133.9839950057195</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.56475241505026</v>
+        <v>89.56475241505028</v>
       </c>
       <c r="R15" t="n">
         <v>43.5637244085848</v>
@@ -32107,10 +32107,10 @@
         <v>13.03280396088983</v>
       </c>
       <c r="T15" t="n">
-        <v>2.828133846530757</v>
+        <v>2.828133846530758</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.04616105299016474</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.5882381178855962</v>
       </c>
       <c r="H16" t="n">
-        <v>5.229971629928304</v>
+        <v>5.229971629928305</v>
       </c>
       <c r="I16" t="n">
         <v>17.68992449059593</v>
@@ -32159,22 +32159,22 @@
         <v>41.58843493451165</v>
       </c>
       <c r="K16" t="n">
-        <v>68.34257405979925</v>
+        <v>68.34257405979926</v>
       </c>
       <c r="L16" t="n">
-        <v>87.45496527182765</v>
+        <v>87.45496527182766</v>
       </c>
       <c r="M16" t="n">
-        <v>92.20899878819394</v>
+        <v>92.20899878819395</v>
       </c>
       <c r="N16" t="n">
-        <v>90.01647489425679</v>
+        <v>90.0164748942568</v>
       </c>
       <c r="O16" t="n">
-        <v>83.1447841535023</v>
+        <v>83.14478415350231</v>
       </c>
       <c r="P16" t="n">
-        <v>71.14472654863607</v>
+        <v>71.14472654863609</v>
       </c>
       <c r="Q16" t="n">
         <v>49.25692094403843</v>
@@ -32229,7 +32229,7 @@
         <v>1.311375977744042</v>
       </c>
       <c r="H17" t="n">
-        <v>13.43012923207117</v>
+        <v>13.43012923207118</v>
       </c>
       <c r="I17" t="n">
         <v>50.55682238197723</v>
@@ -32247,28 +32247,28 @@
         <v>230.2661471520487</v>
       </c>
       <c r="N17" t="n">
-        <v>233.9920941488139</v>
+        <v>233.992094148814</v>
       </c>
       <c r="O17" t="n">
-        <v>220.9520992701216</v>
+        <v>220.9520992701217</v>
       </c>
       <c r="P17" t="n">
-        <v>188.5775048195655</v>
+        <v>188.5775048195656</v>
       </c>
       <c r="Q17" t="n">
         <v>141.613852616607</v>
       </c>
       <c r="R17" t="n">
-        <v>82.37572126196424</v>
+        <v>82.37572126196426</v>
       </c>
       <c r="S17" t="n">
         <v>29.88298009284239</v>
       </c>
       <c r="T17" t="n">
-        <v>5.740548342574547</v>
+        <v>5.740548342574548</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.1049100782195234</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7016480054505038</v>
+        <v>0.7016480054505039</v>
       </c>
       <c r="H18" t="n">
-        <v>6.776442578956182</v>
+        <v>6.776442578956184</v>
       </c>
       <c r="I18" t="n">
         <v>24.15761773151954</v>
       </c>
       <c r="J18" t="n">
-        <v>66.29034949740922</v>
+        <v>66.29034949740924</v>
       </c>
       <c r="K18" t="n">
         <v>113.300765862593</v>
@@ -32335,10 +32335,10 @@
         <v>133.9839950057195</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.56475241505028</v>
+        <v>89.56475241505029</v>
       </c>
       <c r="R18" t="n">
-        <v>43.5637244085848</v>
+        <v>43.56372440858481</v>
       </c>
       <c r="S18" t="n">
         <v>13.03280396088983</v>
@@ -32347,7 +32347,7 @@
         <v>2.828133846530758</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04616105299016474</v>
+        <v>0.04616105299016475</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5882381178855962</v>
+        <v>0.5882381178855963</v>
       </c>
       <c r="H19" t="n">
-        <v>5.229971629928305</v>
+        <v>5.229971629928306</v>
       </c>
       <c r="I19" t="n">
-        <v>17.68992449059593</v>
+        <v>17.68992449059594</v>
       </c>
       <c r="J19" t="n">
-        <v>41.58843493451165</v>
+        <v>41.58843493451166</v>
       </c>
       <c r="K19" t="n">
-        <v>68.34257405979926</v>
+        <v>68.34257405979928</v>
       </c>
       <c r="L19" t="n">
-        <v>87.45496527182766</v>
+        <v>87.45496527182767</v>
       </c>
       <c r="M19" t="n">
-        <v>92.20899878819395</v>
+        <v>92.20899878819397</v>
       </c>
       <c r="N19" t="n">
-        <v>90.0164748942568</v>
+        <v>90.01647489425682</v>
       </c>
       <c r="O19" t="n">
-        <v>83.14478415350231</v>
+        <v>83.14478415350233</v>
       </c>
       <c r="P19" t="n">
-        <v>71.14472654863609</v>
+        <v>71.1447265486361</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.25692094403843</v>
+        <v>49.25692094403844</v>
       </c>
       <c r="R19" t="n">
-        <v>26.4493248278378</v>
+        <v>26.44932482783781</v>
       </c>
       <c r="S19" t="n">
         <v>10.25138610896989</v>
@@ -32426,7 +32426,7 @@
         <v>2.513381049147547</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03208571552103256</v>
+        <v>0.03208571552103257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>13.43012923207117</v>
       </c>
       <c r="I20" t="n">
-        <v>50.55682238197723</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J20" t="n">
         <v>111.3013968910535</v>
@@ -32478,10 +32478,10 @@
         <v>166.8119420289588</v>
       </c>
       <c r="L20" t="n">
-        <v>206.9449646078431</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M20" t="n">
-        <v>230.2661471520487</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N20" t="n">
         <v>233.9920941488139</v>
@@ -32496,13 +32496,13 @@
         <v>141.613852616607</v>
       </c>
       <c r="R20" t="n">
-        <v>82.37572126196424</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S20" t="n">
-        <v>29.88298009284239</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T20" t="n">
-        <v>5.740548342574547</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U20" t="n">
         <v>0.1049100782195233</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7016480054505038</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H21" t="n">
-        <v>6.776442578956182</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I21" t="n">
         <v>24.15761773151954</v>
       </c>
       <c r="J21" t="n">
-        <v>66.29034949740922</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K21" t="n">
         <v>113.300765862593</v>
       </c>
       <c r="L21" t="n">
-        <v>152.346861885207</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M21" t="n">
         <v>177.7816020827877</v>
       </c>
       <c r="N21" t="n">
-        <v>182.4869520842519</v>
+        <v>182.4869520842518</v>
       </c>
       <c r="O21" t="n">
-        <v>166.9399094371644</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9839950057195</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.56475241505028</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R21" t="n">
         <v>43.5637244085848</v>
@@ -32581,10 +32581,10 @@
         <v>13.03280396088983</v>
       </c>
       <c r="T21" t="n">
-        <v>2.828133846530758</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04616105299016474</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5882381178855962</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H22" t="n">
-        <v>5.229971629928305</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I22" t="n">
         <v>17.68992449059593</v>
@@ -32633,22 +32633,22 @@
         <v>41.58843493451165</v>
       </c>
       <c r="K22" t="n">
-        <v>68.34257405979926</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L22" t="n">
-        <v>87.45496527182766</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M22" t="n">
-        <v>92.20899878819395</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N22" t="n">
-        <v>90.0164748942568</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O22" t="n">
-        <v>83.14478415350231</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P22" t="n">
-        <v>71.14472654863609</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q22" t="n">
         <v>49.25692094403843</v>
@@ -35421,16 +35421,16 @@
         <v>240.5285123181314</v>
       </c>
       <c r="N11" t="n">
-        <v>237.5089635799387</v>
+        <v>237.5089635799388</v>
       </c>
       <c r="O11" t="n">
-        <v>186.9907987939227</v>
+        <v>186.9907987939228</v>
       </c>
       <c r="P11" t="n">
-        <v>114.9988128932574</v>
+        <v>114.9988128932575</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.981024917396837</v>
+        <v>7.981024917396866</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>116.507683898026</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>223.615062310402</v>
@@ -35500,13 +35500,13 @@
         <v>274.3489689505702</v>
       </c>
       <c r="N12" t="n">
-        <v>223.644079710734</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="O12" t="n">
         <v>248.1952741062629</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.80279465818977</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>28.1792668076442</v>
+        <v>28.17926680764421</v>
       </c>
       <c r="M13" t="n">
-        <v>38.39380264143657</v>
+        <v>38.39380264143658</v>
       </c>
       <c r="N13" t="n">
-        <v>45.57799116188353</v>
+        <v>45.57799116188355</v>
       </c>
       <c r="O13" t="n">
-        <v>19.87880704734596</v>
+        <v>19.87880704734597</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35658,16 +35658,16 @@
         <v>240.5285123181314</v>
       </c>
       <c r="N14" t="n">
-        <v>237.5089635799387</v>
+        <v>237.5089635799388</v>
       </c>
       <c r="O14" t="n">
-        <v>186.9907987939227</v>
+        <v>186.9907987939228</v>
       </c>
       <c r="P14" t="n">
-        <v>114.9988128932574</v>
+        <v>114.9988128932575</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.981024917396837</v>
+        <v>7.981024917396866</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>223.615062310402</v>
       </c>
       <c r="M15" t="n">
-        <v>243.9268227968691</v>
+        <v>46.7449876718184</v>
       </c>
       <c r="N15" t="n">
-        <v>22.25006334258518</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="O15" t="n">
         <v>248.1952741062629</v>
       </c>
       <c r="P15" t="n">
-        <v>176.8990920389158</v>
+        <v>176.8990920389159</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.91707048293421</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>28.1792668076442</v>
+        <v>28.17926680764421</v>
       </c>
       <c r="M16" t="n">
-        <v>38.39380264143657</v>
+        <v>38.39380264143658</v>
       </c>
       <c r="N16" t="n">
-        <v>45.57799116188353</v>
+        <v>45.57799116188355</v>
       </c>
       <c r="O16" t="n">
-        <v>19.87880704734596</v>
+        <v>19.87880704734597</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>189.9544053731505</v>
       </c>
       <c r="M17" t="n">
-        <v>240.5285123181314</v>
+        <v>240.5285123181315</v>
       </c>
       <c r="N17" t="n">
         <v>237.5089635799388</v>
@@ -35904,7 +35904,7 @@
         <v>114.9988128932575</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.981024917396866</v>
+        <v>7.981024917396894</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>116.507683898026</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>223.615062310402</v>
       </c>
       <c r="M18" t="n">
-        <v>274.3489689505702</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="N18" t="n">
-        <v>223.644079710734</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="O18" t="n">
-        <v>248.1952741062629</v>
+        <v>248.195274106263</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.80279465818977</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>28.17926680764421</v>
+        <v>28.17926680764423</v>
       </c>
       <c r="M19" t="n">
-        <v>38.39380264143658</v>
+        <v>38.39380264143659</v>
       </c>
       <c r="N19" t="n">
-        <v>45.57799116188355</v>
+        <v>45.57799116188356</v>
       </c>
       <c r="O19" t="n">
-        <v>19.87880704734597</v>
+        <v>19.87880704734599</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36132,16 +36132,16 @@
         <v>240.5285123181314</v>
       </c>
       <c r="N20" t="n">
-        <v>237.5089635799388</v>
+        <v>237.5089635799387</v>
       </c>
       <c r="O20" t="n">
-        <v>186.9907987939228</v>
+        <v>186.9907987939227</v>
       </c>
       <c r="P20" t="n">
-        <v>114.9988128932575</v>
+        <v>114.9988128932574</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.981024917396866</v>
+        <v>7.981024917396837</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>223.615062310402</v>
       </c>
       <c r="M21" t="n">
-        <v>274.3489689505703</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="N21" t="n">
-        <v>108.3356010869101</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="O21" t="n">
         <v>248.1952741062629</v>
       </c>
       <c r="P21" t="n">
-        <v>176.8990920389159</v>
+        <v>65.80279465818977</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.91707048293422</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>28.17926680764421</v>
+        <v>28.1792668076442</v>
       </c>
       <c r="M22" t="n">
-        <v>38.39380264143658</v>
+        <v>38.39380264143657</v>
       </c>
       <c r="N22" t="n">
-        <v>45.57799116188355</v>
+        <v>45.57799116188353</v>
       </c>
       <c r="O22" t="n">
-        <v>19.87880704734597</v>
+        <v>19.87880704734596</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>175.5971475656815</v>
+        <v>198.4323171656192</v>
       </c>
       <c r="L24" t="n">
         <v>333.7728418663735</v>
@@ -36457,7 +36457,7 @@
         <v>273.7791931662341</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.6788524483316</v>
+        <v>96.84368284839421</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.18814426613909</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>198.4323171656192</v>
@@ -36694,7 +36694,7 @@
         <v>273.7791931662341</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.65553858225508</v>
+        <v>96.84368284839421</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.18814426613909</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>198.4323171656192</v>
@@ -36931,7 +36931,7 @@
         <v>273.7791931662341</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.655538582256</v>
+        <v>96.84368284839421</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>273.7791931662341</v>
       </c>
       <c r="Q33" t="n">
-        <v>96.84368284839512</v>
+        <v>96.84368284839421</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>333.7728418663735</v>
       </c>
       <c r="M36" t="n">
-        <v>370.6805810768757</v>
+        <v>434.7038949429515</v>
       </c>
       <c r="N36" t="n">
         <v>464.8151625977362</v>
@@ -37405,7 +37405,7 @@
         <v>273.7791931662341</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.6788524483316</v>
+        <v>55.65553858225508</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>41.18814426613909</v>
       </c>
       <c r="K39" t="n">
         <v>198.4323171656192</v>
@@ -37642,7 +37642,7 @@
         <v>273.7791931662341</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.84368284839421</v>
+        <v>55.65553858225508</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.18814426613909</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>198.4323171656192</v>
@@ -37876,10 +37876,10 @@
         <v>368.9048805616268</v>
       </c>
       <c r="P42" t="n">
-        <v>209.7558793001577</v>
+        <v>273.7791931662341</v>
       </c>
       <c r="Q42" t="n">
-        <v>119.6788524483316</v>
+        <v>96.84368284839421</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>41.18814426613909</v>
       </c>
       <c r="K45" t="n">
         <v>198.4323171656192</v>
@@ -38107,7 +38107,7 @@
         <v>434.7038949429515</v>
       </c>
       <c r="N45" t="n">
-        <v>441.9799929977985</v>
+        <v>400.7918487316595</v>
       </c>
       <c r="O45" t="n">
         <v>368.9048805616268</v>
